--- a/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf850925e8c42cd/Desktop/times-ireland-model/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{B81FD6BF-416C-4328-A15F-C59C43468514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C952D0FF-535D-45BF-B84B-1C06F73728FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EBF4A-B20D-4004-B94E-587CC3C959FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2656,9 +2656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2696,9 +2696,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2731,26 +2731,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2783,26 +2766,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7144,8 +7110,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T164" sqref="T164"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16856,7 +16822,7 @@
         <v>UP</v>
       </c>
       <c r="E249" s="62">
-        <v>0.95903634682608185</v>
+        <v>1</v>
       </c>
       <c r="F249" s="62">
         <v>1</v>
@@ -16908,10 +16874,11 @@
         <v>UP</v>
       </c>
       <c r="E251" s="62">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F251" s="62">
-        <v>0.5</v>
+        <f>E251</f>
+        <v>0.95</v>
       </c>
       <c r="G251" s="62">
         <v>1</v>
@@ -16934,10 +16901,12 @@
         <v>LO</v>
       </c>
       <c r="E252" s="62">
-        <v>0.5</v>
+        <f>E251</f>
+        <v>0.95</v>
       </c>
       <c r="F252" s="62">
-        <v>0.5</v>
+        <f>F251</f>
+        <v>0.95</v>
       </c>
       <c r="G252" s="62">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-main\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\TIM_Carbon Budget\TIM\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EBF4A-B20D-4004-B94E-587CC3C959FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF279C-579B-4DF6-B9B5-9524E8E7BB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -2222,9 +2222,9 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2960,21 +2960,21 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" style="81" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="81" customWidth="1"/>
-    <col min="8" max="10" width="8.109375" style="81" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="81" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="81" customWidth="1"/>
+    <col min="1" max="4" width="21.69140625" style="81" customWidth="1"/>
+    <col min="5" max="6" width="14.07421875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="12.07421875" style="81" customWidth="1"/>
+    <col min="8" max="10" width="8.07421875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="9.69140625" style="81" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" style="81" customWidth="1"/>
     <col min="13" max="13" width="10" style="81" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="81" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="81" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="81"/>
+    <col min="14" max="14" width="11.4609375" style="81" customWidth="1"/>
+    <col min="15" max="15" width="13.4609375" style="81" customWidth="1"/>
+    <col min="16" max="16384" width="8.84375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="79"/>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -3002,7 +3002,7 @@
       <c r="Y1" s="80"/>
       <c r="Z1" s="80"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -3030,7 +3030,7 @@
       <c r="Y2" s="80"/>
       <c r="Z2" s="80"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -3058,7 +3058,7 @@
       <c r="Y3" s="80"/>
       <c r="Z3" s="80"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -3086,7 +3086,7 @@
       <c r="Y4" s="80"/>
       <c r="Z4" s="80"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -3114,7 +3114,7 @@
       <c r="Y5" s="80"/>
       <c r="Z5" s="80"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="79"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -3142,7 +3142,7 @@
       <c r="Y6" s="80"/>
       <c r="Z6" s="80"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="79"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -3170,7 +3170,7 @@
       <c r="Y7" s="80"/>
       <c r="Z7" s="80"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="79"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -3198,7 +3198,7 @@
       <c r="Y8" s="80"/>
       <c r="Z8" s="80"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="79"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -3226,7 +3226,7 @@
       <c r="Y9" s="80"/>
       <c r="Z9" s="80"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -3254,7 +3254,7 @@
       <c r="Y10" s="80"/>
       <c r="Z10" s="80"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -3282,7 +3282,7 @@
       <c r="Y11" s="80"/>
       <c r="Z11" s="80"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -3310,7 +3310,7 @@
       <c r="Y12" s="80"/>
       <c r="Z12" s="80"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -3338,7 +3338,7 @@
       <c r="Y13" s="80"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -3366,7 +3366,7 @@
       <c r="Y14" s="80"/>
       <c r="Z14" s="80"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="79"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -3394,7 +3394,7 @@
       <c r="Y15" s="80"/>
       <c r="Z15" s="80"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="99" t="s">
         <v>389</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="Y16" s="80"/>
       <c r="Z16" s="80"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -3452,7 +3452,7 @@
       <c r="Y17" s="80"/>
       <c r="Z17" s="80"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -3480,7 +3480,7 @@
       <c r="Y18" s="80"/>
       <c r="Z18" s="80"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="87" t="s">
         <v>390</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="Y19" s="80"/>
       <c r="Z19" s="80"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="87" t="s">
         <v>391</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="Y20" s="80"/>
       <c r="Z20" s="80"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="87" t="s">
         <v>392</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="Y21" s="80"/>
       <c r="Z21" s="80"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="87"/>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
@@ -3604,7 +3604,7 @@
       <c r="Y22" s="80"/>
       <c r="Z22" s="80"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="87" t="s">
         <v>393</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="Y23" s="80"/>
       <c r="Z23" s="80"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="87"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -3664,7 +3664,7 @@
       <c r="Y24" s="80"/>
       <c r="Z24" s="80"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="87"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -3692,7 +3692,7 @@
       <c r="Y25" s="80"/>
       <c r="Z25" s="80"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="87" t="s">
         <v>394</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="Y26" s="80"/>
       <c r="Z26" s="80"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="87"/>
       <c r="B27" s="98"/>
       <c r="C27" s="98"/>
@@ -3752,7 +3752,7 @@
       <c r="Y27" s="80"/>
       <c r="Z27" s="80"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="87"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -3780,7 +3780,7 @@
       <c r="Y28" s="80"/>
       <c r="Z28" s="80"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="87" t="s">
         <v>395</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="Y29" s="80"/>
       <c r="Z29" s="80"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="87" t="s">
         <v>396</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="Y30" s="80"/>
       <c r="Z30" s="80"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="87" t="s">
         <v>398</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="Y31" s="80"/>
       <c r="Z31" s="80"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="93"/>
       <c r="B32" s="94" t="s">
         <v>400</v>
@@ -3906,7 +3906,7 @@
       <c r="Y32" s="80"/>
       <c r="Z32" s="80"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
@@ -3934,7 +3934,7 @@
       <c r="Y33" s="80"/>
       <c r="Z33" s="80"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" s="79"/>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -3962,7 +3962,7 @@
       <c r="Y34" s="80"/>
       <c r="Z34" s="80"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" s="79"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -3990,7 +3990,7 @@
       <c r="Y35" s="80"/>
       <c r="Z35" s="80"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" s="79"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
@@ -4018,7 +4018,7 @@
       <c r="Y36" s="80"/>
       <c r="Z36" s="80"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -4046,7 +4046,7 @@
       <c r="Y37" s="80"/>
       <c r="Z37" s="80"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" s="79"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
@@ -4074,7 +4074,7 @@
       <c r="Y38" s="80"/>
       <c r="Z38" s="80"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" s="79"/>
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
@@ -4102,7 +4102,7 @@
       <c r="Y39" s="80"/>
       <c r="Z39" s="80"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" s="79"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
@@ -4130,7 +4130,7 @@
       <c r="Y40" s="80"/>
       <c r="Z40" s="80"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" s="79"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
@@ -4158,7 +4158,7 @@
       <c r="Y41" s="80"/>
       <c r="Z41" s="80"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" s="79"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -4186,7 +4186,7 @@
       <c r="Y42" s="80"/>
       <c r="Z42" s="80"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" s="80"/>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -4214,7 +4214,7 @@
       <c r="Y43" s="80"/>
       <c r="Z43" s="80"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" s="80"/>
       <c r="B44" s="80"/>
       <c r="C44" s="80"/>
@@ -4242,7 +4242,7 @@
       <c r="Y44" s="80"/>
       <c r="Z44" s="80"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" s="80"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
@@ -4270,7 +4270,7 @@
       <c r="Y45" s="80"/>
       <c r="Z45" s="80"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46" s="80"/>
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
@@ -4298,7 +4298,7 @@
       <c r="Y46" s="80"/>
       <c r="Z46" s="80"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47" s="80"/>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -4326,7 +4326,7 @@
       <c r="Y47" s="80"/>
       <c r="Z47" s="80"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48" s="80"/>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -4354,7 +4354,7 @@
       <c r="Y48" s="80"/>
       <c r="Z48" s="80"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" s="80"/>
       <c r="B49" s="80"/>
       <c r="C49" s="80"/>
@@ -4382,7 +4382,7 @@
       <c r="Y49" s="80"/>
       <c r="Z49" s="80"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" s="80"/>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -4410,7 +4410,7 @@
       <c r="Y50" s="80"/>
       <c r="Z50" s="80"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51" s="80"/>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -4438,7 +4438,7 @@
       <c r="Y51" s="80"/>
       <c r="Z51" s="80"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" s="80"/>
       <c r="B52" s="80"/>
       <c r="C52" s="80"/>
@@ -4466,7 +4466,7 @@
       <c r="Y52" s="80"/>
       <c r="Z52" s="80"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" s="80"/>
       <c r="B53" s="80"/>
       <c r="C53" s="80"/>
@@ -4494,7 +4494,7 @@
       <c r="Y53" s="80"/>
       <c r="Z53" s="80"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" s="80"/>
       <c r="B54" s="80"/>
       <c r="C54" s="80"/>
@@ -4522,7 +4522,7 @@
       <c r="Y54" s="80"/>
       <c r="Z54" s="80"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" s="80"/>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -4550,7 +4550,7 @@
       <c r="Y55" s="80"/>
       <c r="Z55" s="80"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" s="80"/>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
@@ -4578,7 +4578,7 @@
       <c r="Y56" s="80"/>
       <c r="Z56" s="80"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" s="80"/>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
@@ -4606,7 +4606,7 @@
       <c r="Y57" s="80"/>
       <c r="Z57" s="80"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" s="80"/>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
@@ -4634,7 +4634,7 @@
       <c r="Y58" s="80"/>
       <c r="Z58" s="80"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" s="80"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
@@ -4662,7 +4662,7 @@
       <c r="Y59" s="80"/>
       <c r="Z59" s="80"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" s="80"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
@@ -4690,7 +4690,7 @@
       <c r="Y60" s="80"/>
       <c r="Z60" s="80"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" s="80"/>
       <c r="B61" s="80"/>
       <c r="C61" s="80"/>
@@ -4718,7 +4718,7 @@
       <c r="Y61" s="80"/>
       <c r="Z61" s="80"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" s="80"/>
       <c r="B62" s="80"/>
       <c r="C62" s="80"/>
@@ -4746,7 +4746,7 @@
       <c r="Y62" s="80"/>
       <c r="Z62" s="80"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" s="80"/>
       <c r="B63" s="80"/>
       <c r="C63" s="80"/>
@@ -4774,7 +4774,7 @@
       <c r="Y63" s="80"/>
       <c r="Z63" s="80"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" s="80"/>
       <c r="B64" s="80"/>
       <c r="C64" s="80"/>
@@ -4802,7 +4802,7 @@
       <c r="Y64" s="80"/>
       <c r="Z64" s="80"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" s="80"/>
       <c r="B65" s="80"/>
       <c r="C65" s="80"/>
@@ -4830,7 +4830,7 @@
       <c r="Y65" s="80"/>
       <c r="Z65" s="80"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" s="80"/>
       <c r="B66" s="80"/>
       <c r="C66" s="80"/>
@@ -4858,7 +4858,7 @@
       <c r="Y66" s="80"/>
       <c r="Z66" s="80"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" s="80"/>
       <c r="B67" s="80"/>
       <c r="C67" s="80"/>
@@ -4886,7 +4886,7 @@
       <c r="Y67" s="80"/>
       <c r="Z67" s="80"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" s="80"/>
       <c r="B68" s="80"/>
       <c r="C68" s="80"/>
@@ -4914,7 +4914,7 @@
       <c r="Y68" s="80"/>
       <c r="Z68" s="80"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" s="80"/>
       <c r="B69" s="80"/>
       <c r="C69" s="80"/>
@@ -4942,7 +4942,7 @@
       <c r="Y69" s="80"/>
       <c r="Z69" s="80"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" s="80"/>
       <c r="B70" s="80"/>
       <c r="C70" s="80"/>
@@ -4970,7 +4970,7 @@
       <c r="Y70" s="80"/>
       <c r="Z70" s="80"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" s="80"/>
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
@@ -4998,7 +4998,7 @@
       <c r="Y71" s="80"/>
       <c r="Z71" s="80"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" s="80"/>
       <c r="B72" s="80"/>
       <c r="C72" s="80"/>
@@ -5026,7 +5026,7 @@
       <c r="Y72" s="80"/>
       <c r="Z72" s="80"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" s="80"/>
       <c r="B73" s="80"/>
       <c r="C73" s="80"/>
@@ -5054,7 +5054,7 @@
       <c r="Y73" s="80"/>
       <c r="Z73" s="80"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" s="80"/>
       <c r="B74" s="80"/>
       <c r="C74" s="80"/>
@@ -5082,7 +5082,7 @@
       <c r="Y74" s="80"/>
       <c r="Z74" s="80"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" s="80"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -5110,7 +5110,7 @@
       <c r="Y75" s="80"/>
       <c r="Z75" s="80"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" s="80"/>
       <c r="B76" s="80"/>
       <c r="C76" s="80"/>
@@ -5138,7 +5138,7 @@
       <c r="Y76" s="80"/>
       <c r="Z76" s="80"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" s="80"/>
       <c r="B77" s="80"/>
       <c r="C77" s="80"/>
@@ -5166,7 +5166,7 @@
       <c r="Y77" s="80"/>
       <c r="Z77" s="80"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" s="80"/>
       <c r="B78" s="80"/>
       <c r="C78" s="80"/>
@@ -5194,7 +5194,7 @@
       <c r="Y78" s="80"/>
       <c r="Z78" s="80"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" s="80"/>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -5222,7 +5222,7 @@
       <c r="Y79" s="80"/>
       <c r="Z79" s="80"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" s="80"/>
       <c r="B80" s="80"/>
       <c r="C80" s="80"/>
@@ -5250,7 +5250,7 @@
       <c r="Y80" s="80"/>
       <c r="Z80" s="80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81" s="80"/>
       <c r="B81" s="80"/>
       <c r="C81" s="80"/>
@@ -5278,7 +5278,7 @@
       <c r="Y81" s="80"/>
       <c r="Z81" s="80"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82" s="80"/>
       <c r="B82" s="80"/>
       <c r="C82" s="80"/>
@@ -5306,7 +5306,7 @@
       <c r="Y82" s="80"/>
       <c r="Z82" s="80"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83" s="80"/>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -5334,7 +5334,7 @@
       <c r="Y83" s="80"/>
       <c r="Z83" s="80"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A84" s="80"/>
       <c r="B84" s="80"/>
       <c r="C84" s="80"/>
@@ -5362,7 +5362,7 @@
       <c r="Y84" s="80"/>
       <c r="Z84" s="80"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85" s="80"/>
       <c r="B85" s="80"/>
       <c r="C85" s="80"/>
@@ -5390,7 +5390,7 @@
       <c r="Y85" s="80"/>
       <c r="Z85" s="80"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A86" s="80"/>
       <c r="B86" s="80"/>
       <c r="C86" s="80"/>
@@ -5418,7 +5418,7 @@
       <c r="Y86" s="80"/>
       <c r="Z86" s="80"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A87" s="80"/>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
@@ -5446,7 +5446,7 @@
       <c r="Y87" s="80"/>
       <c r="Z87" s="80"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A88" s="80"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
@@ -5474,7 +5474,7 @@
       <c r="Y88" s="80"/>
       <c r="Z88" s="80"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A89" s="80"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
@@ -5502,7 +5502,7 @@
       <c r="Y89" s="80"/>
       <c r="Z89" s="80"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A90" s="80"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
@@ -5530,7 +5530,7 @@
       <c r="Y90" s="80"/>
       <c r="Z90" s="80"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A91" s="80"/>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -5558,7 +5558,7 @@
       <c r="Y91" s="80"/>
       <c r="Z91" s="80"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A92" s="80"/>
       <c r="B92" s="80"/>
       <c r="C92" s="80"/>
@@ -5586,7 +5586,7 @@
       <c r="Y92" s="80"/>
       <c r="Z92" s="80"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A93" s="80"/>
       <c r="B93" s="80"/>
       <c r="C93" s="80"/>
@@ -5614,7 +5614,7 @@
       <c r="Y93" s="80"/>
       <c r="Z93" s="80"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A94" s="80"/>
       <c r="B94" s="80"/>
       <c r="C94" s="80"/>
@@ -5642,7 +5642,7 @@
       <c r="Y94" s="80"/>
       <c r="Z94" s="80"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A95" s="80"/>
       <c r="B95" s="80"/>
       <c r="C95" s="80"/>
@@ -5670,7 +5670,7 @@
       <c r="Y95" s="80"/>
       <c r="Z95" s="80"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A96" s="80"/>
       <c r="B96" s="80"/>
       <c r="C96" s="80"/>
@@ -5698,7 +5698,7 @@
       <c r="Y96" s="80"/>
       <c r="Z96" s="80"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A97" s="80"/>
       <c r="B97" s="80"/>
       <c r="C97" s="80"/>
@@ -5726,7 +5726,7 @@
       <c r="Y97" s="80"/>
       <c r="Z97" s="80"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A98" s="80"/>
       <c r="B98" s="80"/>
       <c r="C98" s="80"/>
@@ -5754,7 +5754,7 @@
       <c r="Y98" s="80"/>
       <c r="Z98" s="80"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A99" s="80"/>
       <c r="B99" s="80"/>
       <c r="C99" s="80"/>
@@ -5812,26 +5812,26 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.3046875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.69140625" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.4609375" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="60.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5841,7 +5841,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5851,7 +5851,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="48" t="s">
         <v>61</v>
@@ -5937,7 +5937,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
         <v>62</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="48" t="s">
         <v>63</v>
@@ -5968,7 +5968,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="48" t="s">
         <v>65</v>
@@ -5984,7 +5984,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="48" t="s">
         <v>66</v>
@@ -6000,7 +6000,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="48" t="s">
         <v>380</v>
@@ -6016,7 +6016,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="48" t="s">
         <v>67</v>
@@ -6032,7 +6032,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="48" t="s">
         <v>69</v>
@@ -6048,7 +6048,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="48" t="s">
         <v>39</v>
@@ -6068,7 +6068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="48" t="s">
         <v>120</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="48" t="s">
         <v>388</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="60" t="s">
         <v>72</v>
@@ -6110,7 +6110,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>73</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="21" t="s">
         <v>189</v>
@@ -6145,7 +6145,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
         <v>191</v>
@@ -6162,7 +6162,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
         <v>353</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>76</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>82</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>84</v>
@@ -6254,7 +6254,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>90</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
         <v>92</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
         <v>96</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>98</v>
@@ -6348,7 +6348,7 @@
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6357,7 +6357,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="E35" s="21"/>
@@ -6365,13 +6365,13 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
-    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="101" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="101"/>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="25" t="s">
         <v>56</v>
       </c>
@@ -6379,19 +6379,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="49" t="s">
         <v>208</v>
       </c>
       <c r="C40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="51" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="51"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="52" t="s">
         <v>210</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="52" t="s">
         <v>212</v>
       </c>
@@ -6407,13 +6407,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="51"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="52" t="s">
         <v>214</v>
       </c>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="52" t="s">
         <v>216</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="52" t="s">
         <v>218</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="52" t="s">
         <v>220</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="52" t="s">
         <v>222</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="52" t="s">
         <v>224</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="52" t="s">
         <v>226</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="52" t="s">
         <v>228</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="52" t="s">
         <v>230</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="52" t="s">
         <v>232</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="52" t="s">
         <v>234</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="52" t="s">
         <v>236</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="52" t="s">
         <v>238</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="52" t="s">
         <v>240</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="52" t="s">
         <v>242</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="52" t="s">
         <v>355</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="52" t="s">
         <v>356</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="52" t="s">
         <v>246</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="52" t="s">
         <v>248</v>
       </c>
@@ -6567,13 +6567,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="51" t="s">
         <v>250</v>
       </c>
       <c r="C64" s="51"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="52" t="s">
         <v>251</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="52" t="s">
         <v>327</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="52" t="s">
         <v>313</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="52" t="s">
         <v>314</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="52" t="s">
         <v>315</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="52" t="s">
         <v>316</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="52" t="s">
         <v>317</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="52" t="s">
         <v>318</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="52" t="s">
         <v>319</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="52" t="s">
         <v>320</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="52" t="s">
         <v>321</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="52" t="s">
         <v>322</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="52" t="s">
         <v>323</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="52" t="s">
         <v>324</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="52" t="s">
         <v>357</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="52" t="s">
         <v>358</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="52" t="s">
         <v>359</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="52" t="s">
         <v>325</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="52" t="s">
         <v>326</v>
       </c>
@@ -6725,13 +6725,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="51" t="s">
         <v>271</v>
       </c>
       <c r="C84" s="51"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="52" t="s">
         <v>272</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="52" t="s">
         <v>274</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="52" t="s">
         <v>276</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="52" t="s">
         <v>278</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="52" t="s">
         <v>280</v>
       </c>
@@ -6771,13 +6771,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="51" t="s">
         <v>282</v>
       </c>
       <c r="C90" s="51"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="52" t="s">
         <v>360</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="52" t="s">
         <v>361</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="52" t="s">
         <v>285</v>
       </c>
@@ -6801,19 +6801,19 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C94" s="54"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="51" t="s">
         <v>287</v>
       </c>
       <c r="C95" s="51"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="52" t="s">
         <v>288</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="52" t="s">
         <v>290</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="52" t="s">
         <v>292</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="52" t="s">
         <v>382</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="52" t="s">
         <v>295</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="52" t="s">
         <v>297</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="52" t="s">
         <v>299</v>
       </c>
@@ -6869,13 +6869,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="51" t="s">
         <v>329</v>
       </c>
       <c r="C103" s="51"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="52" t="s">
         <v>346</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="52" t="s">
         <v>347</v>
       </c>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="J105" s="21"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="52" t="s">
         <v>348</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="J106" s="21"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="52" t="s">
         <v>349</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="J107" s="21"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="52" t="s">
         <v>350</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="J108" s="21"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="52" t="s">
         <v>351</v>
       </c>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="52" t="s">
         <v>352</v>
       </c>
@@ -6937,14 +6937,14 @@
       </c>
       <c r="J110" s="21"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="51" t="s">
         <v>301</v>
       </c>
       <c r="C111" s="51"/>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="52" t="s">
         <v>334</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="J112" s="21"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="52" t="s">
         <v>335</v>
       </c>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="52" t="s">
         <v>336</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="J114" s="21"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="52" t="s">
         <v>337</v>
       </c>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="J115" s="21"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="52" t="s">
         <v>338</v>
       </c>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="J116" s="21"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="52" t="s">
         <v>339</v>
       </c>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="J117" s="21"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="52" t="s">
         <v>340</v>
       </c>
@@ -7007,14 +7007,14 @@
       </c>
       <c r="J118" s="21"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="51" t="s">
         <v>309</v>
       </c>
       <c r="C119" s="51"/>
       <c r="J119" s="21"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="52" t="s">
         <v>341</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="52" t="s">
         <v>362</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="52" t="s">
         <v>342</v>
       </c>
@@ -7038,19 +7038,19 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="53" t="s">
         <v>364</v>
       </c>
       <c r="C123" s="54"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="51" t="s">
         <v>368</v>
       </c>
       <c r="C124" s="51"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="52" t="s">
         <v>377</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="52" t="s">
         <v>375</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="52" t="s">
         <v>376</v>
       </c>
@@ -7074,13 +7074,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="51" t="s">
         <v>371</v>
       </c>
       <c r="C128" s="51"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>378</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="28" t="s">
         <v>379</v>
       </c>
@@ -7110,34 +7110,35 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z160" sqref="Z160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="14" width="19.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" customWidth="1"/>
+    <col min="3" max="3" width="49.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.53515625" customWidth="1"/>
+    <col min="6" max="8" width="13.4609375" customWidth="1"/>
+    <col min="9" max="11" width="18.07421875" customWidth="1"/>
+    <col min="12" max="14" width="19.84375" customWidth="1"/>
+    <col min="16" max="16" width="16.3046875" customWidth="1"/>
+    <col min="17" max="17" width="12.3046875" customWidth="1"/>
+    <col min="18" max="18" width="15.3046875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="18.21875" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" customWidth="1"/>
-    <col min="34" max="34" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.07421875" customWidth="1"/>
+    <col min="21" max="21" width="14.53515625" customWidth="1"/>
+    <col min="22" max="22" width="18.23046875" customWidth="1"/>
+    <col min="24" max="24" width="11.84375" customWidth="1"/>
+    <col min="25" max="25" width="10.84375" customWidth="1"/>
+    <col min="34" max="34" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7150,7 +7151,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
         <v>112</v>
       </c>
@@ -7221,7 +7222,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -7244,7 +7245,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -7267,7 +7268,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
         <v>113</v>
       </c>
@@ -7280,7 +7281,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -7300,7 +7301,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -7320,7 +7321,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -7341,7 +7342,7 @@
       <c r="I12" s="9"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -7362,7 +7363,7 @@
       <c r="I13" s="9"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -7383,7 +7384,7 @@
       <c r="I14" s="9"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -7403,7 +7404,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -7463,7 +7464,7 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -7483,7 +7484,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -7503,7 +7504,7 @@
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7523,7 +7524,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -7543,7 +7544,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -7563,7 +7564,7 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -7583,7 +7584,7 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -7603,7 +7604,7 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -7623,7 +7624,7 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -7643,7 +7644,7 @@
       </c>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -7663,7 +7664,7 @@
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B29" s="26" t="s">
         <v>114</v>
       </c>
@@ -7676,7 +7677,7 @@
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -7696,7 +7697,7 @@
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
@@ -7736,7 +7737,7 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7756,7 +7757,7 @@
       </c>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
@@ -7796,7 +7797,7 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7816,7 +7817,7 @@
       </c>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
@@ -7856,7 +7857,7 @@
       </c>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
@@ -7876,7 +7877,7 @@
       </c>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
@@ -7916,7 +7917,7 @@
       </c>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
@@ -7936,7 +7937,7 @@
       </c>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
@@ -7976,7 +7977,7 @@
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -7996,7 +7997,7 @@
       </c>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
@@ -8036,7 +8037,7 @@
       </c>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
@@ -8056,7 +8057,7 @@
       </c>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
         <v>115</v>
       </c>
@@ -8069,7 +8070,7 @@
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
@@ -8089,7 +8090,7 @@
       </c>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
@@ -8109,7 +8110,7 @@
       </c>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
@@ -8129,7 +8130,7 @@
       </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
@@ -8149,7 +8150,7 @@
       </c>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
@@ -8169,7 +8170,7 @@
       </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
@@ -8182,7 +8183,7 @@
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -8202,7 +8203,7 @@
       </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
@@ -8222,7 +8223,7 @@
       </c>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
@@ -8242,7 +8243,7 @@
       </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B59" s="26" t="s">
         <v>117</v>
       </c>
@@ -8255,7 +8256,7 @@
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>28</v>
       </c>
@@ -8275,7 +8276,7 @@
       </c>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
@@ -8295,7 +8296,7 @@
       </c>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
@@ -8315,7 +8316,7 @@
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>28</v>
       </c>
@@ -8335,7 +8336,7 @@
       </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
@@ -8355,7 +8356,7 @@
       </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
@@ -8375,7 +8376,7 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
@@ -8395,7 +8396,7 @@
       </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B67" s="26" t="s">
         <v>328</v>
       </c>
@@ -8408,7 +8409,7 @@
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
@@ -8428,7 +8429,7 @@
       </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>28</v>
       </c>
@@ -8448,7 +8449,7 @@
       </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
@@ -8468,7 +8469,7 @@
       </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>28</v>
       </c>
@@ -8488,7 +8489,7 @@
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
@@ -8508,7 +8509,7 @@
       </c>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>28</v>
       </c>
@@ -8528,7 +8529,7 @@
       </c>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
@@ -8548,7 +8549,7 @@
       </c>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B75" s="26" t="s">
         <v>118</v>
       </c>
@@ -8561,7 +8562,7 @@
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>28</v>
       </c>
@@ -8581,7 +8582,7 @@
       </c>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>28</v>
       </c>
@@ -8601,7 +8602,7 @@
       </c>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>28</v>
       </c>
@@ -8621,7 +8622,7 @@
       </c>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
@@ -8641,7 +8642,7 @@
       </c>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>28</v>
       </c>
@@ -8661,7 +8662,7 @@
       </c>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>28</v>
       </c>
@@ -8681,7 +8682,7 @@
       </c>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>28</v>
       </c>
@@ -8701,7 +8702,7 @@
       </c>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B83" s="26" t="s">
         <v>119</v>
       </c>
@@ -8714,7 +8715,7 @@
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
@@ -8734,7 +8735,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>28</v>
       </c>
@@ -8754,7 +8755,7 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>28</v>
       </c>
@@ -8774,7 +8775,7 @@
       </c>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B87" s="26" t="s">
         <v>363</v>
       </c>
@@ -8788,7 +8789,7 @@
       <c r="J87" s="26"/>
       <c r="P87" s="21"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
@@ -8808,7 +8809,7 @@
       </c>
       <c r="P88" s="21"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
@@ -8828,7 +8829,7 @@
       </c>
       <c r="P89" s="21"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>28</v>
       </c>
@@ -8848,7 +8849,7 @@
       </c>
       <c r="P90" s="21"/>
     </row>
-    <row r="91" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B91" s="26" t="s">
         <v>374</v>
       </c>
@@ -8862,7 +8863,7 @@
       <c r="J91" s="26"/>
       <c r="P91" s="21"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="56" t="s">
         <v>28</v>
       </c>
@@ -8882,7 +8883,7 @@
       </c>
       <c r="P92" s="21"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="58" t="s">
         <v>28</v>
       </c>
@@ -8907,13 +8908,13 @@
       <c r="K93" s="46"/>
       <c r="P93" s="21"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P94" s="21"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D96" s="6" t="s">
         <v>0</v>
       </c>
@@ -8922,7 +8923,7 @@
       <c r="J96" s="7"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>1</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" ht="21" x14ac:dyDescent="0.3">
       <c r="B98" s="35" t="s">
         <v>31</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:24" ht="26.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="34" t="s">
         <v>35</v>
       </c>
@@ -9127,7 +9128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B100" s="26" t="s">
         <v>112</v>
       </c>
@@ -9154,7 +9155,7 @@
       <c r="W100" s="26"/>
       <c r="X100" s="26"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B101" t="str">
         <f>D7</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -9232,7 +9233,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B102" t="str">
         <f>D8</f>
         <v>T-MOT-EV_ELC01</v>
@@ -9310,7 +9311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B103" s="26" t="s">
         <v>113</v>
       </c>
@@ -9337,7 +9338,7 @@
       <c r="W103" s="26"/>
       <c r="X103" s="26"/>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B104" t="str">
         <f t="shared" ref="B104:B122" si="2">D10</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -9418,7 +9419,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B105" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DST21</v>
@@ -9499,7 +9500,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B106" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DF21</v>
@@ -9577,7 +9578,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B107" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_NGB21</v>
@@ -9590,8 +9591,8 @@
         <f>Commodities!B19&amp;","&amp;Commodities!B20&amp;","&amp;Commodities!B21</f>
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
-      <c r="E107">
-        <v>2019</v>
+      <c r="E107" s="97">
+        <v>2024</v>
       </c>
       <c r="F107" s="46">
         <v>0.41317922700087906</v>
@@ -9655,7 +9656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B108" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_E8521</v>
@@ -9668,8 +9669,8 @@
         <f>Commodities!B19&amp;","&amp;Commodities!B20&amp;","&amp;Commodities!B21</f>
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
-      <c r="E108">
-        <v>2019</v>
+      <c r="E108" s="97">
+        <v>2024</v>
       </c>
       <c r="F108" s="46">
         <v>0.38903594158617399</v>
@@ -9733,7 +9734,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B109" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_B10021</v>
@@ -9746,8 +9747,8 @@
         <f>Commodities!B19&amp;","&amp;Commodities!B20&amp;","&amp;Commodities!B21</f>
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
-      <c r="E109">
-        <v>2019</v>
+      <c r="E109" s="97">
+        <v>2024</v>
       </c>
       <c r="F109" s="46">
         <v>0.55562426143181531</v>
@@ -9811,7 +9812,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B110" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_GSL21</v>
@@ -9889,7 +9890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B111" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_DST21</v>
@@ -9967,7 +9968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B112" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -10045,7 +10046,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B113" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -10123,7 +10124,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B114" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -10201,7 +10202,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B115" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_DST21</v>
@@ -10279,7 +10280,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B116" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV20_DST21</v>
@@ -10357,7 +10358,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B117" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV40_DST21</v>
@@ -10435,7 +10436,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B118" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV100_ELC21</v>
@@ -10513,7 +10514,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B119" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV150_ELC21</v>
@@ -10591,7 +10592,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B120" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV250_ELC21</v>
@@ -10669,7 +10670,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B121" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_HYD21</v>
@@ -10747,7 +10748,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B122" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-FCV_HYD21</v>
@@ -10825,7 +10826,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B123" s="26" t="s">
         <v>114</v>
       </c>
@@ -10852,7 +10853,7 @@
       <c r="W123" s="26"/>
       <c r="X123" s="26"/>
     </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B124" t="str">
         <f t="shared" ref="B124:B142" si="7">D30</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -10930,7 +10931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B125" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_DST31</v>
@@ -11009,7 +11010,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B126" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_DF31</v>
@@ -11088,7 +11089,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B127" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_NGB31</v>
@@ -11167,7 +11168,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B128" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_E8531</v>
@@ -11246,7 +11247,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B129" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_B10031</v>
@@ -11325,7 +11326,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B130" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-HEV_GSL31</v>
@@ -11404,7 +11405,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B131" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-HEV_DST31</v>
@@ -11483,7 +11484,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B132" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -11562,7 +11563,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B133" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -11641,7 +11642,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B134" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -11720,7 +11721,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B135" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV10_DST31</v>
@@ -11799,7 +11800,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B136" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV20_DST31</v>
@@ -11878,7 +11879,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B137" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV40_DST31</v>
@@ -11957,7 +11958,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B138" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV100_ELC31</v>
@@ -12036,7 +12037,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B139" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV150_ELC31</v>
@@ -12115,7 +12116,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B140" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV250_ELC31</v>
@@ -12194,7 +12195,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B141" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_HYD31</v>
@@ -12273,7 +12274,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B142" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-FCV_HYD31</v>
@@ -12352,7 +12353,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B143" s="26" t="s">
         <v>115</v>
       </c>
@@ -12379,7 +12380,7 @@
       <c r="W143" s="26"/>
       <c r="X143" s="26"/>
     </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B144" t="str">
         <f>D50</f>
         <v>T-BUS-ICE_DST41</v>
@@ -12457,7 +12458,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B145" t="str">
         <f>D51</f>
         <v>T-BUS-ICE_B10041</v>
@@ -12535,7 +12536,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B146" t="str">
         <f>D52</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -12613,7 +12614,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B147" t="str">
         <f>D53</f>
         <v>T-BUS-BEV_ELC41</v>
@@ -12691,7 +12692,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B148" t="str">
         <f>D54</f>
         <v>T-BUS-FCV_HYD41</v>
@@ -12769,7 +12770,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B149" s="26" t="s">
         <v>116</v>
       </c>
@@ -12796,7 +12797,7 @@
       <c r="W149" s="26"/>
       <c r="X149" s="26"/>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B150" t="str">
         <f>D56</f>
         <v>T-LPT-BEV_ELC51</v>
@@ -12874,7 +12875,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B151" t="str">
         <f>D57</f>
         <v>T-HPT-BEV_ELC51</v>
@@ -12952,7 +12953,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B152" t="str">
         <f>D58</f>
         <v>T-HPT-ICE_DST51</v>
@@ -13030,7 +13031,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B153" s="26" t="s">
         <v>117</v>
       </c>
@@ -13057,7 +13058,7 @@
       <c r="W153" s="26"/>
       <c r="X153" s="26"/>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B154" t="str">
         <f t="shared" ref="B154:B160" si="16">D60</f>
         <v>T-LGT-ICE_DST61</v>
@@ -13125,7 +13126,7 @@
       <c r="U154" s="46">
         <v>5</v>
       </c>
-      <c r="V154" s="97">
+      <c r="V154" s="96">
         <v>0.04</v>
       </c>
       <c r="W154">
@@ -13135,7 +13136,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B155" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-HEV_DST61</v>
@@ -13203,7 +13204,7 @@
       <c r="U155" s="46">
         <v>5</v>
       </c>
-      <c r="V155" s="97">
+      <c r="V155" s="96">
         <v>0.04</v>
       </c>
       <c r="W155">
@@ -13213,7 +13214,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B156" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-PHEV_DST61</v>
@@ -13281,7 +13282,7 @@
       <c r="U156" s="46">
         <v>5</v>
       </c>
-      <c r="V156" s="97">
+      <c r="V156" s="96">
         <v>0.04</v>
       </c>
       <c r="W156">
@@ -13291,7 +13292,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B157" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-ICE_NGB61</v>
@@ -13359,7 +13360,7 @@
       <c r="U157" s="46">
         <v>5</v>
       </c>
-      <c r="V157" s="97">
+      <c r="V157" s="96">
         <v>0.04</v>
       </c>
       <c r="W157">
@@ -13369,7 +13370,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B158" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-PHEV_NGB61</v>
@@ -13437,7 +13438,7 @@
       <c r="U158" s="46">
         <v>5</v>
       </c>
-      <c r="V158" s="97">
+      <c r="V158" s="96">
         <v>0.04</v>
       </c>
       <c r="W158">
@@ -13447,7 +13448,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B159" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-FCV_HYD61</v>
@@ -13515,7 +13516,7 @@
       <c r="U159" s="46">
         <v>5</v>
       </c>
-      <c r="V159" s="97">
+      <c r="V159" s="96">
         <v>0.04</v>
       </c>
       <c r="W159">
@@ -13525,7 +13526,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B160" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-BEV_ELC61</v>
@@ -13593,7 +13594,7 @@
       <c r="U160" s="46">
         <v>5</v>
       </c>
-      <c r="V160" s="97">
+      <c r="V160" s="96">
         <v>0.04</v>
       </c>
       <c r="W160">
@@ -13603,7 +13604,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B161" s="26" t="s">
         <v>328</v>
       </c>
@@ -13626,11 +13627,11 @@
       <c r="S161" s="26"/>
       <c r="T161" s="26"/>
       <c r="U161" s="26"/>
-      <c r="V161" s="96"/>
+      <c r="V161" s="95"/>
       <c r="W161" s="26"/>
       <c r="X161" s="26"/>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B162" t="str">
         <f t="shared" ref="B162:B168" si="21">D68</f>
         <v>T-MGT-ICE_DST71</v>
@@ -13716,7 +13717,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B163" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_DST71</v>
@@ -13803,7 +13804,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B164" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-FCV_HYD71</v>
@@ -13889,7 +13890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B165" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_NGB71</v>
@@ -13976,7 +13977,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B166" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_NGB71</v>
@@ -14063,7 +14064,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B167" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_LNG71</v>
@@ -14150,7 +14151,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B168" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-BEV_ELC71</v>
@@ -14237,7 +14238,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="169" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B169" s="26" t="s">
         <v>118</v>
       </c>
@@ -14260,11 +14261,11 @@
       <c r="S169" s="26"/>
       <c r="T169" s="26"/>
       <c r="U169" s="26"/>
-      <c r="V169" s="96"/>
+      <c r="V169" s="95"/>
       <c r="W169" s="26"/>
       <c r="X169" s="26"/>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B170" t="str">
         <f t="shared" ref="B170:B176" si="32">D76</f>
         <v>T-HGT-ICE_DST81</v>
@@ -14332,8 +14333,8 @@
       <c r="U170" s="46">
         <v>5</v>
       </c>
-      <c r="V170" s="95">
-        <v>8</v>
+      <c r="V170" s="96">
+        <v>8.5139999999999993</v>
       </c>
       <c r="W170">
         <v>20</v>
@@ -14342,7 +14343,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B171" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_DST81</v>
@@ -14410,9 +14411,9 @@
       <c r="U171" s="46">
         <v>5</v>
       </c>
-      <c r="V171" s="95">
+      <c r="V171" s="96">
         <f>V170</f>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W171">
         <v>20</v>
@@ -14421,7 +14422,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B172" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-FCV_HYD81</v>
@@ -14489,9 +14490,9 @@
       <c r="U172" s="46">
         <v>5</v>
       </c>
-      <c r="V172" s="95">
+      <c r="V172" s="96">
         <f t="shared" ref="V172:V176" si="38">V171</f>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W172">
         <v>20</v>
@@ -14500,7 +14501,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B173" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_NGB81</v>
@@ -14568,9 +14569,9 @@
       <c r="U173" s="46">
         <v>5</v>
       </c>
-      <c r="V173" s="95">
+      <c r="V173" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W173">
         <v>20</v>
@@ -14579,7 +14580,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B174" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_NGB81</v>
@@ -14647,9 +14648,9 @@
       <c r="U174" s="46">
         <v>5</v>
       </c>
-      <c r="V174" s="95">
+      <c r="V174" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W174">
         <v>20</v>
@@ -14658,7 +14659,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B175" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_LNG81</v>
@@ -14726,9 +14727,9 @@
       <c r="U175" s="46">
         <v>5</v>
       </c>
-      <c r="V175" s="95">
+      <c r="V175" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W175">
         <v>20</v>
@@ -14737,7 +14738,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B176" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-BEV_ELC81</v>
@@ -14805,9 +14806,9 @@
       <c r="U176" s="46">
         <v>5</v>
       </c>
-      <c r="V176" s="95">
+      <c r="V176" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W176">
         <v>20</v>
@@ -14816,7 +14817,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B177" s="26" t="s">
         <v>119</v>
       </c>
@@ -14843,7 +14844,7 @@
       <c r="W177" s="26"/>
       <c r="X177" s="26"/>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B178" t="str">
         <f>D84</f>
         <v>T-GTR-ICE_DST91</v>
@@ -14921,7 +14922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B179" t="str">
         <f>D85</f>
         <v>T-GTR-BEV_ELC91</v>
@@ -14999,7 +15000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B180" t="str">
         <f>D86</f>
         <v>T-GTR-FCV_HYD91</v>
@@ -15077,7 +15078,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B181" s="26" t="s">
         <v>363</v>
       </c>
@@ -15104,7 +15105,7 @@
       <c r="W181" s="26"/>
       <c r="X181" s="26"/>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B182" t="str">
         <f>D88</f>
         <v>T-TUR_NEW</v>
@@ -15134,7 +15135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B183" t="str">
         <f t="shared" ref="B183:B184" si="42">D89</f>
         <v>T-NAV_NEW</v>
@@ -15164,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B184" t="str">
         <f t="shared" si="42"/>
         <v>T-OTH_NEW</v>
@@ -15194,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B185" s="26" t="s">
         <v>374</v>
       </c>
@@ -15221,7 +15222,7 @@
       <c r="W185" s="26"/>
       <c r="X185" s="26"/>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B186" t="str">
         <f>Commodities!B129</f>
         <v>T-AVI_DOM_NEW</v>
@@ -15251,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B187" s="28" t="str">
         <f>Commodities!B130</f>
         <v>T-AVI_INT_NEW</v>
@@ -15295,10 +15296,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R190" s="46"/>
     </row>
-    <row r="193" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" ht="14.6" x14ac:dyDescent="0.4">
       <c r="D193" s="77" t="s">
         <v>0</v>
       </c>
@@ -15307,7 +15308,7 @@
       <c r="H193" s="75"/>
       <c r="I193" s="75"/>
     </row>
-    <row r="194" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B194" s="23" t="s">
         <v>1</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="61" t="str">
         <f>B101</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -15355,7 +15356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="64" t="str">
         <f>B195</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -15380,7 +15381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="69" t="str">
         <f>B104</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -15405,7 +15406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="69" t="str">
         <f>B197</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -15430,7 +15431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="69" t="str">
         <f>B105</f>
         <v>T-CAR-ICE_DST21</v>
@@ -15455,7 +15456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="69" t="str">
         <f>B199</f>
         <v>T-CAR-ICE_DST21</v>
@@ -15480,7 +15481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="69" t="str">
         <f>B106</f>
         <v>T-CAR-ICE_DF21</v>
@@ -15505,7 +15506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="69" t="str">
         <f>B201</f>
         <v>T-CAR-ICE_DF21</v>
@@ -15530,7 +15531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="69" t="str">
         <f>B107</f>
         <v>T-CAR-ICE_NGB21</v>
@@ -15555,7 +15556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="69" t="str">
         <f>B203</f>
         <v>T-CAR-ICE_NGB21</v>
@@ -15580,7 +15581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="69" t="str">
         <f>TRA!B108</f>
         <v>T-CAR-ICE_E8521</v>
@@ -15605,7 +15606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="69" t="str">
         <f>B205</f>
         <v>T-CAR-ICE_E8521</v>
@@ -15630,7 +15631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="69" t="str">
         <f>B110</f>
         <v>T-CAR-HEV_GSL21</v>
@@ -15655,7 +15656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="69" t="str">
         <f>B207</f>
         <v>T-CAR-HEV_GSL21</v>
@@ -15680,7 +15681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="69" t="str">
         <f>B111</f>
         <v>T-CAR-HEV_DST21</v>
@@ -15705,7 +15706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B210" s="69" t="str">
         <f>B209</f>
         <v>T-CAR-HEV_DST21</v>
@@ -15730,7 +15731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="69" t="str">
         <f>B112</f>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -15755,7 +15756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B212" s="69" t="str">
         <f>B211</f>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -15780,7 +15781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="69" t="str">
         <f>B113</f>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -15805,7 +15806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" s="69" t="str">
         <f>B213</f>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -15830,7 +15831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="69" t="str">
         <f>B114</f>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -15855,7 +15856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="69" t="str">
         <f>B215</f>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -15880,7 +15881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="69" t="str">
         <f>B115</f>
         <v>T-CAR-PHEV10_DST21</v>
@@ -15904,7 +15905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="69" t="str">
         <f>B217</f>
         <v>T-CAR-PHEV10_DST21</v>
@@ -15928,7 +15929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="69" t="str">
         <f>B116</f>
         <v>T-CAR-PHEV20_DST21</v>
@@ -15953,7 +15954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" s="69" t="str">
         <f>B219</f>
         <v>T-CAR-PHEV20_DST21</v>
@@ -15978,7 +15979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="69" t="str">
         <f>B117</f>
         <v>T-CAR-PHEV40_DST21</v>
@@ -16003,7 +16004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="69" t="str">
         <f>B221</f>
         <v>T-CAR-PHEV40_DST21</v>
@@ -16028,7 +16029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="64" t="str">
         <f>B124</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -16058,7 +16059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="64" t="str">
         <f>B223</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -16088,7 +16089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="64" t="str">
         <f>B125</f>
         <v>T-TAX-ICE_DST31</v>
@@ -16118,7 +16119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="64" t="str">
         <f>B225</f>
         <v>T-TAX-ICE_DST31</v>
@@ -16148,7 +16149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="64" t="str">
         <f>B126</f>
         <v>T-TAX-ICE_DF31</v>
@@ -16178,7 +16179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="64" t="str">
         <f>B227</f>
         <v>T-TAX-ICE_DF31</v>
@@ -16208,7 +16209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="64" t="str">
         <f>B127</f>
         <v>T-TAX-ICE_NGB31</v>
@@ -16238,7 +16239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="64" t="str">
         <f>B229</f>
         <v>T-TAX-ICE_NGB31</v>
@@ -16268,7 +16269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" s="64" t="str">
         <f>B128</f>
         <v>T-TAX-ICE_E8531</v>
@@ -16298,7 +16299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="64" t="str">
         <f>B231</f>
         <v>T-TAX-ICE_E8531</v>
@@ -16328,7 +16329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" s="64" t="str">
         <f>B130</f>
         <v>T-TAX-HEV_GSL31</v>
@@ -16358,7 +16359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" s="64" t="str">
         <f>B233</f>
         <v>T-TAX-HEV_GSL31</v>
@@ -16388,7 +16389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="64" t="str">
         <f>B131</f>
         <v>T-TAX-HEV_DST31</v>
@@ -16418,7 +16419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B236" s="64" t="str">
         <f>B235</f>
         <v>T-TAX-HEV_DST31</v>
@@ -16448,7 +16449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B237" s="64" t="str">
         <f>B132</f>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -16478,7 +16479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="64" t="str">
         <f>B237</f>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -16508,7 +16509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B239" s="64" t="str">
         <f>B133</f>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -16538,7 +16539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B240" s="64" t="str">
         <f>B239</f>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -16568,7 +16569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B241" s="64" t="str">
         <f>B134</f>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -16598,7 +16599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" s="64" t="str">
         <f>B241</f>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -16628,7 +16629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B243" s="64" t="str">
         <f>B135</f>
         <v>T-TAX-PHEV10_DST31</v>
@@ -16658,7 +16659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="64" t="str">
         <f>B243</f>
         <v>T-TAX-PHEV10_DST31</v>
@@ -16688,7 +16689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="64" t="str">
         <f>B136</f>
         <v>T-TAX-PHEV20_DST31</v>
@@ -16718,7 +16719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="64" t="str">
         <f>B245</f>
         <v>T-TAX-PHEV20_DST31</v>
@@ -16748,7 +16749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="64" t="str">
         <f>B137</f>
         <v>T-TAX-PHEV40_DST31</v>
@@ -16778,7 +16779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="64" t="str">
         <f>B247</f>
         <v>T-TAX-PHEV40_DST31</v>
@@ -16808,7 +16809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="69" t="str">
         <f>B144</f>
         <v>T-BUS-ICE_DST41</v>
@@ -16834,7 +16835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="69" t="str">
         <f>B249</f>
         <v>T-BUS-ICE_DST41</v>
@@ -16860,7 +16861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="69" t="str">
         <f>B146</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -16887,7 +16888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="69" t="str">
         <f>B251</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -16915,7 +16916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="64" t="str">
         <f>B152</f>
         <v>T-HPT-ICE_DST51</v>
@@ -16940,7 +16941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="64" t="str">
         <f>B253</f>
         <v>T-HPT-ICE_DST51</v>
@@ -16965,7 +16966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="69" t="str">
         <f>B154</f>
         <v>T-LGT-ICE_DST61</v>
@@ -16990,7 +16991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="69" t="str">
         <f>B255</f>
         <v>T-LGT-ICE_DST61</v>
@@ -17015,7 +17016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" s="69" t="str">
         <f>B155</f>
         <v>T-LGT-HEV_DST61</v>
@@ -17040,7 +17041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" s="69" t="str">
         <f>B257</f>
         <v>T-LGT-HEV_DST61</v>
@@ -17065,7 +17066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" s="69" t="str">
         <f>B156</f>
         <v>T-LGT-PHEV_DST61</v>
@@ -17090,7 +17091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" s="69" t="str">
         <f>B259</f>
         <v>T-LGT-PHEV_DST61</v>
@@ -17115,7 +17116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" s="69" t="str">
         <f>B157</f>
         <v>T-LGT-ICE_NGB61</v>
@@ -17140,7 +17141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="69" t="str">
         <f>B261</f>
         <v>T-LGT-ICE_NGB61</v>
@@ -17165,7 +17166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="69" t="str">
         <f>B158</f>
         <v>T-LGT-PHEV_NGB61</v>
@@ -17190,7 +17191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" s="69" t="str">
         <f>B263</f>
         <v>T-LGT-PHEV_NGB61</v>
@@ -17215,7 +17216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="64" t="str">
         <f>B162</f>
         <v>T-MGT-ICE_DST71</v>
@@ -17240,7 +17241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" s="64" t="str">
         <f>B265</f>
         <v>T-MGT-ICE_DST71</v>
@@ -17265,7 +17266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="64" t="str">
         <f>B163</f>
         <v>T-MGT-HEV_DST71</v>
@@ -17290,7 +17291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="64" t="str">
         <f>B267</f>
         <v>T-MGT-HEV_DST71</v>
@@ -17315,7 +17316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B269" s="64" t="str">
         <f>B165</f>
         <v>T-MGT-ICE_NGB71</v>
@@ -17340,7 +17341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="64" t="str">
         <f>B269</f>
         <v>T-MGT-ICE_NGB71</v>
@@ -17365,7 +17366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" s="64" t="str">
         <f>B166</f>
         <v>T-MGT-HEV_NGB71</v>
@@ -17390,7 +17391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" s="64" t="str">
         <f>B271</f>
         <v>T-MGT-HEV_NGB71</v>
@@ -17415,7 +17416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" s="69" t="str">
         <f>B170</f>
         <v>T-HGT-ICE_DST81</v>
@@ -17440,7 +17441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B274" s="69" t="str">
         <f>B273</f>
         <v>T-HGT-ICE_DST81</v>
@@ -17465,7 +17466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" s="69" t="str">
         <f>B171</f>
         <v>T-HGT-HEV_DST81</v>
@@ -17490,7 +17491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" s="69" t="str">
         <f>B275</f>
         <v>T-HGT-HEV_DST81</v>
@@ -17515,7 +17516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" s="69" t="str">
         <f>B173</f>
         <v>T-HGT-ICE_NGB81</v>
@@ -17540,7 +17541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" s="69" t="str">
         <f>B277</f>
         <v>T-HGT-ICE_NGB81</v>
@@ -17565,7 +17566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" s="69" t="str">
         <f>B174</f>
         <v>T-HGT-HEV_NGB81</v>
@@ -17590,7 +17591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B280" s="69" t="str">
         <f>B279</f>
         <v>T-HGT-HEV_NGB81</v>
@@ -17615,7 +17616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B281" s="64" t="str">
         <f>B178</f>
         <v>T-GTR-ICE_DST91</v>
@@ -17640,7 +17641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B282" s="64" t="str">
         <f>B281</f>
         <v>T-GTR-ICE_DST91</v>
@@ -17665,7 +17666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B283" s="69" t="str">
         <f>B182</f>
         <v>T-TUR_NEW</v>
@@ -17690,7 +17691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B284" s="69" t="str">
         <f>B283</f>
         <v>T-TUR_NEW</v>
@@ -17715,7 +17716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B285" s="69" t="str">
         <f>B182</f>
         <v>T-TUR_NEW</v>
@@ -17740,7 +17741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B286" s="69" t="str">
         <f>B285</f>
         <v>T-TUR_NEW</v>
@@ -17765,7 +17766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B287" s="64" t="str">
         <f>B183</f>
         <v>T-NAV_NEW</v>
@@ -17790,7 +17791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B288" s="64" t="str">
         <f>B287</f>
         <v>T-NAV_NEW</v>
@@ -17815,7 +17816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B289" s="69" t="str">
         <f>B184</f>
         <v>T-OTH_NEW</v>
@@ -17840,7 +17841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B290" s="69" t="str">
         <f>B289</f>
         <v>T-OTH_NEW</v>
@@ -17865,7 +17866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B291" s="69" t="str">
         <f t="shared" ref="B291:B294" si="49">B290</f>
         <v>T-OTH_NEW</v>
@@ -17890,7 +17891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B292" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17915,7 +17916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B293" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17940,7 +17941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B294" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17965,7 +17966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B295" s="64" t="str">
         <f>B186</f>
         <v>T-AVI_DOM_NEW</v>
@@ -17990,7 +17991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B296" s="64" t="str">
         <f>B295</f>
         <v>T-AVI_DOM_NEW</v>
@@ -18015,7 +18016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B297" s="64" t="str">
         <f>B187</f>
         <v>T-AVI_INT_NEW</v>
@@ -18040,7 +18041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B298" s="68" t="str">
         <f>B297</f>
         <v>T-AVI_INT_NEW</v>
@@ -18085,19 +18086,19 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="11" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.3046875" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" customWidth="1"/>
+    <col min="3" max="11" width="14.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -18132,7 +18133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -18206,7 +18207,7 @@
         <v>4.044339163234481E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -18245,7 +18246,7 @@
         <v>7.0982279191462321E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -18284,7 +18285,7 @@
         <v>3.9667538813275338E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -18323,7 +18324,7 @@
         <v>3.4071494011901911E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -18362,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -18401,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -18440,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -18479,7 +18480,7 @@
         <v>9.7889515257063141E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -18518,7 +18519,7 @@
         <v>2.81535528281486E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>5.7611198692605467E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>8.8694833975750467E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>1.0399729276888665E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>9.0378599668199111E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -18752,7 +18753,7 @@
         <v>4.9027295162475133E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -18791,7 +18792,7 @@
         <v>7.5934531228075966E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -18830,7 +18831,7 @@
         <v>5.7817542527464363E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -18869,7 +18870,7 @@
         <v>8.2620071477504387E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -18908,7 +18909,7 @@
         <v>3.8875178487417154E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -18947,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -18986,7 +18987,7 @@
         <v>1.7844614838597853E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -19025,7 +19026,7 @@
         <v>3.2627087167889597E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -19064,7 +19065,7 @@
         <v>4.7624157085434599E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -19103,7 +19104,7 @@
         <v>6.1160312652178582E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -19142,7 +19143,7 @@
         <v>7.6570070239441387E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -19181,7 +19182,7 @@
         <v>4.0385615358584315E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -19220,7 +19221,7 @@
         <v>4.4355670741269594E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -19259,7 +19260,7 @@
         <v>6.0252399778799404E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -19298,7 +19299,7 @@
         <v>5.8395305265069287E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -19337,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -19376,7 +19377,7 @@
         <v>2.9713512219681899E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -19415,7 +19416,7 @@
         <v>7.1543534422278537E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>8.253753394356084E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>6.1077775118235022E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -19532,7 +19533,7 @@
         <v>1.5434518847445876E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -19571,7 +19572,7 @@
         <v>1.0143862921663627E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -19610,7 +19611,7 @@
         <v>9.9045040732272994E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -19649,7 +19650,7 @@
         <v>9.4786103980785269E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -19688,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -19727,7 +19728,7 @@
         <v>0.1113926558102297</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -19766,17 +19767,17 @@
         <v>1.3948843236461781E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -19808,7 +19809,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -19840,7 +19841,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -19872,7 +19873,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -19904,7 +19905,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -19936,7 +19937,7 @@
         <v>37720</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>37990</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -20000,7 +20001,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -20032,7 +20033,7 @@
         <v>40395</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -20064,17 +20065,17 @@
         <v>73975</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>123</v>
       </c>
@@ -20106,7 +20107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -20151,7 +20152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -20196,7 +20197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -20241,7 +20242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -20286,7 +20287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>162</v>
       </c>
@@ -20331,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -20421,7 +20422,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -20466,7 +20467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A73" s="40" t="s">
         <v>177</v>
       </c>
@@ -20511,12 +20512,12 @@
         <v>931</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -20548,7 +20549,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -20593,7 +20594,7 @@
         <v>2.5412637704730561E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -20638,7 +20639,7 @@
         <v>1.270631885236528E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -20683,7 +20684,7 @@
         <v>2.5412637704730561E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -20728,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -20773,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -20818,7 +20819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -20863,7 +20864,7 @@
         <v>1.1003672126148334E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -20908,7 +20909,7 @@
         <v>7.6237913114191687E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A87" s="40" t="s">
         <v>177</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1.1829582851552077E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A90" s="43" t="s">
         <v>64</v>
       </c>
@@ -20962,7 +20963,7 @@
         <v>21831.587082756254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A91" s="43" t="s">
         <v>179</v>
       </c>
@@ -20971,12 +20972,12 @@
         <v>20290.14478354996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
@@ -20986,7 +20987,7 @@
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>

--- a/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\TIM_Carbon Budget\TIM\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-2019-2023calib\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF279C-579B-4DF6-B9B5-9524E8E7BB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E26F09C-FEC3-403A-8BAD-D3367FF7701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7110,8 +7110,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z160" sqref="Z160"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -9748,7 +9748,7 @@
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
       <c r="E109" s="97">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="F109" s="46">
         <v>0.55562426143181531</v>
@@ -14079,7 +14079,7 @@
       </c>
       <c r="E167">
         <f t="shared" si="27"/>
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="F167" s="46">
         <v>2.2386549470658205E-2</v>
@@ -14672,8 +14672,8 @@
         <f t="shared" si="37"/>
         <v>TRAF</v>
       </c>
-      <c r="E175">
-        <v>2019</v>
+      <c r="E175" s="8">
+        <v>2050</v>
       </c>
       <c r="F175" s="46">
         <v>2.2386549470658205E-2</v>

--- a/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf850925e8c42cd/Desktop/times-ireland-model/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-2019-2023calib\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{B81FD6BF-416C-4328-A15F-C59C43468514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C952D0FF-535D-45BF-B84B-1C06F73728FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E26F09C-FEC3-403A-8BAD-D3367FF7701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -2222,9 +2222,9 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2656,9 +2656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2696,9 +2696,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2731,26 +2731,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2783,26 +2766,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2994,21 +2960,21 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" style="81" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="81" customWidth="1"/>
-    <col min="8" max="10" width="8.109375" style="81" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="81" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="81" customWidth="1"/>
+    <col min="1" max="4" width="21.69140625" style="81" customWidth="1"/>
+    <col min="5" max="6" width="14.07421875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="12.07421875" style="81" customWidth="1"/>
+    <col min="8" max="10" width="8.07421875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="9.69140625" style="81" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" style="81" customWidth="1"/>
     <col min="13" max="13" width="10" style="81" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="81" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="81" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="81"/>
+    <col min="14" max="14" width="11.4609375" style="81" customWidth="1"/>
+    <col min="15" max="15" width="13.4609375" style="81" customWidth="1"/>
+    <col min="16" max="16384" width="8.84375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="79"/>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -3036,7 +3002,7 @@
       <c r="Y1" s="80"/>
       <c r="Z1" s="80"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -3064,7 +3030,7 @@
       <c r="Y2" s="80"/>
       <c r="Z2" s="80"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -3092,7 +3058,7 @@
       <c r="Y3" s="80"/>
       <c r="Z3" s="80"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -3120,7 +3086,7 @@
       <c r="Y4" s="80"/>
       <c r="Z4" s="80"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -3148,7 +3114,7 @@
       <c r="Y5" s="80"/>
       <c r="Z5" s="80"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="79"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -3176,7 +3142,7 @@
       <c r="Y6" s="80"/>
       <c r="Z6" s="80"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="79"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -3204,7 +3170,7 @@
       <c r="Y7" s="80"/>
       <c r="Z7" s="80"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="79"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -3232,7 +3198,7 @@
       <c r="Y8" s="80"/>
       <c r="Z8" s="80"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="79"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -3260,7 +3226,7 @@
       <c r="Y9" s="80"/>
       <c r="Z9" s="80"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -3288,7 +3254,7 @@
       <c r="Y10" s="80"/>
       <c r="Z10" s="80"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -3316,7 +3282,7 @@
       <c r="Y11" s="80"/>
       <c r="Z11" s="80"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -3344,7 +3310,7 @@
       <c r="Y12" s="80"/>
       <c r="Z12" s="80"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -3372,7 +3338,7 @@
       <c r="Y13" s="80"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -3400,7 +3366,7 @@
       <c r="Y14" s="80"/>
       <c r="Z14" s="80"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="79"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -3428,7 +3394,7 @@
       <c r="Y15" s="80"/>
       <c r="Z15" s="80"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="99" t="s">
         <v>389</v>
       </c>
@@ -3458,7 +3424,7 @@
       <c r="Y16" s="80"/>
       <c r="Z16" s="80"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -3486,7 +3452,7 @@
       <c r="Y17" s="80"/>
       <c r="Z17" s="80"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -3514,7 +3480,7 @@
       <c r="Y18" s="80"/>
       <c r="Z18" s="80"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="87" t="s">
         <v>390</v>
       </c>
@@ -3546,7 +3512,7 @@
       <c r="Y19" s="80"/>
       <c r="Z19" s="80"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="87" t="s">
         <v>391</v>
       </c>
@@ -3578,7 +3544,7 @@
       <c r="Y20" s="80"/>
       <c r="Z20" s="80"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="87" t="s">
         <v>392</v>
       </c>
@@ -3610,7 +3576,7 @@
       <c r="Y21" s="80"/>
       <c r="Z21" s="80"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="87"/>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
@@ -3638,7 +3604,7 @@
       <c r="Y22" s="80"/>
       <c r="Z22" s="80"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="87" t="s">
         <v>393</v>
       </c>
@@ -3670,7 +3636,7 @@
       <c r="Y23" s="80"/>
       <c r="Z23" s="80"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="87"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -3698,7 +3664,7 @@
       <c r="Y24" s="80"/>
       <c r="Z24" s="80"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="87"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -3726,7 +3692,7 @@
       <c r="Y25" s="80"/>
       <c r="Z25" s="80"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="87" t="s">
         <v>394</v>
       </c>
@@ -3758,7 +3724,7 @@
       <c r="Y26" s="80"/>
       <c r="Z26" s="80"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="87"/>
       <c r="B27" s="98"/>
       <c r="C27" s="98"/>
@@ -3786,7 +3752,7 @@
       <c r="Y27" s="80"/>
       <c r="Z27" s="80"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="87"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -3814,7 +3780,7 @@
       <c r="Y28" s="80"/>
       <c r="Z28" s="80"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="87" t="s">
         <v>395</v>
       </c>
@@ -3846,7 +3812,7 @@
       <c r="Y29" s="80"/>
       <c r="Z29" s="80"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="87" t="s">
         <v>396</v>
       </c>
@@ -3878,7 +3844,7 @@
       <c r="Y30" s="80"/>
       <c r="Z30" s="80"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="87" t="s">
         <v>398</v>
       </c>
@@ -3910,7 +3876,7 @@
       <c r="Y31" s="80"/>
       <c r="Z31" s="80"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="93"/>
       <c r="B32" s="94" t="s">
         <v>400</v>
@@ -3940,7 +3906,7 @@
       <c r="Y32" s="80"/>
       <c r="Z32" s="80"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
@@ -3968,7 +3934,7 @@
       <c r="Y33" s="80"/>
       <c r="Z33" s="80"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" s="79"/>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -3996,7 +3962,7 @@
       <c r="Y34" s="80"/>
       <c r="Z34" s="80"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" s="79"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -4024,7 +3990,7 @@
       <c r="Y35" s="80"/>
       <c r="Z35" s="80"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" s="79"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
@@ -4052,7 +4018,7 @@
       <c r="Y36" s="80"/>
       <c r="Z36" s="80"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -4080,7 +4046,7 @@
       <c r="Y37" s="80"/>
       <c r="Z37" s="80"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" s="79"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
@@ -4108,7 +4074,7 @@
       <c r="Y38" s="80"/>
       <c r="Z38" s="80"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" s="79"/>
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
@@ -4136,7 +4102,7 @@
       <c r="Y39" s="80"/>
       <c r="Z39" s="80"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" s="79"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
@@ -4164,7 +4130,7 @@
       <c r="Y40" s="80"/>
       <c r="Z40" s="80"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" s="79"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
@@ -4192,7 +4158,7 @@
       <c r="Y41" s="80"/>
       <c r="Z41" s="80"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" s="79"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -4220,7 +4186,7 @@
       <c r="Y42" s="80"/>
       <c r="Z42" s="80"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" s="80"/>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -4248,7 +4214,7 @@
       <c r="Y43" s="80"/>
       <c r="Z43" s="80"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" s="80"/>
       <c r="B44" s="80"/>
       <c r="C44" s="80"/>
@@ -4276,7 +4242,7 @@
       <c r="Y44" s="80"/>
       <c r="Z44" s="80"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" s="80"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
@@ -4304,7 +4270,7 @@
       <c r="Y45" s="80"/>
       <c r="Z45" s="80"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46" s="80"/>
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
@@ -4332,7 +4298,7 @@
       <c r="Y46" s="80"/>
       <c r="Z46" s="80"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47" s="80"/>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -4360,7 +4326,7 @@
       <c r="Y47" s="80"/>
       <c r="Z47" s="80"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48" s="80"/>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -4388,7 +4354,7 @@
       <c r="Y48" s="80"/>
       <c r="Z48" s="80"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" s="80"/>
       <c r="B49" s="80"/>
       <c r="C49" s="80"/>
@@ -4416,7 +4382,7 @@
       <c r="Y49" s="80"/>
       <c r="Z49" s="80"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" s="80"/>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -4444,7 +4410,7 @@
       <c r="Y50" s="80"/>
       <c r="Z50" s="80"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51" s="80"/>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -4472,7 +4438,7 @@
       <c r="Y51" s="80"/>
       <c r="Z51" s="80"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" s="80"/>
       <c r="B52" s="80"/>
       <c r="C52" s="80"/>
@@ -4500,7 +4466,7 @@
       <c r="Y52" s="80"/>
       <c r="Z52" s="80"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" s="80"/>
       <c r="B53" s="80"/>
       <c r="C53" s="80"/>
@@ -4528,7 +4494,7 @@
       <c r="Y53" s="80"/>
       <c r="Z53" s="80"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" s="80"/>
       <c r="B54" s="80"/>
       <c r="C54" s="80"/>
@@ -4556,7 +4522,7 @@
       <c r="Y54" s="80"/>
       <c r="Z54" s="80"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" s="80"/>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -4584,7 +4550,7 @@
       <c r="Y55" s="80"/>
       <c r="Z55" s="80"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" s="80"/>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
@@ -4612,7 +4578,7 @@
       <c r="Y56" s="80"/>
       <c r="Z56" s="80"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" s="80"/>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
@@ -4640,7 +4606,7 @@
       <c r="Y57" s="80"/>
       <c r="Z57" s="80"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" s="80"/>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
@@ -4668,7 +4634,7 @@
       <c r="Y58" s="80"/>
       <c r="Z58" s="80"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" s="80"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
@@ -4696,7 +4662,7 @@
       <c r="Y59" s="80"/>
       <c r="Z59" s="80"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" s="80"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
@@ -4724,7 +4690,7 @@
       <c r="Y60" s="80"/>
       <c r="Z60" s="80"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" s="80"/>
       <c r="B61" s="80"/>
       <c r="C61" s="80"/>
@@ -4752,7 +4718,7 @@
       <c r="Y61" s="80"/>
       <c r="Z61" s="80"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" s="80"/>
       <c r="B62" s="80"/>
       <c r="C62" s="80"/>
@@ -4780,7 +4746,7 @@
       <c r="Y62" s="80"/>
       <c r="Z62" s="80"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" s="80"/>
       <c r="B63" s="80"/>
       <c r="C63" s="80"/>
@@ -4808,7 +4774,7 @@
       <c r="Y63" s="80"/>
       <c r="Z63" s="80"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" s="80"/>
       <c r="B64" s="80"/>
       <c r="C64" s="80"/>
@@ -4836,7 +4802,7 @@
       <c r="Y64" s="80"/>
       <c r="Z64" s="80"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" s="80"/>
       <c r="B65" s="80"/>
       <c r="C65" s="80"/>
@@ -4864,7 +4830,7 @@
       <c r="Y65" s="80"/>
       <c r="Z65" s="80"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" s="80"/>
       <c r="B66" s="80"/>
       <c r="C66" s="80"/>
@@ -4892,7 +4858,7 @@
       <c r="Y66" s="80"/>
       <c r="Z66" s="80"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" s="80"/>
       <c r="B67" s="80"/>
       <c r="C67" s="80"/>
@@ -4920,7 +4886,7 @@
       <c r="Y67" s="80"/>
       <c r="Z67" s="80"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" s="80"/>
       <c r="B68" s="80"/>
       <c r="C68" s="80"/>
@@ -4948,7 +4914,7 @@
       <c r="Y68" s="80"/>
       <c r="Z68" s="80"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" s="80"/>
       <c r="B69" s="80"/>
       <c r="C69" s="80"/>
@@ -4976,7 +4942,7 @@
       <c r="Y69" s="80"/>
       <c r="Z69" s="80"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" s="80"/>
       <c r="B70" s="80"/>
       <c r="C70" s="80"/>
@@ -5004,7 +4970,7 @@
       <c r="Y70" s="80"/>
       <c r="Z70" s="80"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" s="80"/>
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
@@ -5032,7 +4998,7 @@
       <c r="Y71" s="80"/>
       <c r="Z71" s="80"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" s="80"/>
       <c r="B72" s="80"/>
       <c r="C72" s="80"/>
@@ -5060,7 +5026,7 @@
       <c r="Y72" s="80"/>
       <c r="Z72" s="80"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" s="80"/>
       <c r="B73" s="80"/>
       <c r="C73" s="80"/>
@@ -5088,7 +5054,7 @@
       <c r="Y73" s="80"/>
       <c r="Z73" s="80"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" s="80"/>
       <c r="B74" s="80"/>
       <c r="C74" s="80"/>
@@ -5116,7 +5082,7 @@
       <c r="Y74" s="80"/>
       <c r="Z74" s="80"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" s="80"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -5144,7 +5110,7 @@
       <c r="Y75" s="80"/>
       <c r="Z75" s="80"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" s="80"/>
       <c r="B76" s="80"/>
       <c r="C76" s="80"/>
@@ -5172,7 +5138,7 @@
       <c r="Y76" s="80"/>
       <c r="Z76" s="80"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" s="80"/>
       <c r="B77" s="80"/>
       <c r="C77" s="80"/>
@@ -5200,7 +5166,7 @@
       <c r="Y77" s="80"/>
       <c r="Z77" s="80"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" s="80"/>
       <c r="B78" s="80"/>
       <c r="C78" s="80"/>
@@ -5228,7 +5194,7 @@
       <c r="Y78" s="80"/>
       <c r="Z78" s="80"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" s="80"/>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -5256,7 +5222,7 @@
       <c r="Y79" s="80"/>
       <c r="Z79" s="80"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" s="80"/>
       <c r="B80" s="80"/>
       <c r="C80" s="80"/>
@@ -5284,7 +5250,7 @@
       <c r="Y80" s="80"/>
       <c r="Z80" s="80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81" s="80"/>
       <c r="B81" s="80"/>
       <c r="C81" s="80"/>
@@ -5312,7 +5278,7 @@
       <c r="Y81" s="80"/>
       <c r="Z81" s="80"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82" s="80"/>
       <c r="B82" s="80"/>
       <c r="C82" s="80"/>
@@ -5340,7 +5306,7 @@
       <c r="Y82" s="80"/>
       <c r="Z82" s="80"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83" s="80"/>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -5368,7 +5334,7 @@
       <c r="Y83" s="80"/>
       <c r="Z83" s="80"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A84" s="80"/>
       <c r="B84" s="80"/>
       <c r="C84" s="80"/>
@@ -5396,7 +5362,7 @@
       <c r="Y84" s="80"/>
       <c r="Z84" s="80"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85" s="80"/>
       <c r="B85" s="80"/>
       <c r="C85" s="80"/>
@@ -5424,7 +5390,7 @@
       <c r="Y85" s="80"/>
       <c r="Z85" s="80"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A86" s="80"/>
       <c r="B86" s="80"/>
       <c r="C86" s="80"/>
@@ -5452,7 +5418,7 @@
       <c r="Y86" s="80"/>
       <c r="Z86" s="80"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A87" s="80"/>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
@@ -5480,7 +5446,7 @@
       <c r="Y87" s="80"/>
       <c r="Z87" s="80"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A88" s="80"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
@@ -5508,7 +5474,7 @@
       <c r="Y88" s="80"/>
       <c r="Z88" s="80"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A89" s="80"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
@@ -5536,7 +5502,7 @@
       <c r="Y89" s="80"/>
       <c r="Z89" s="80"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A90" s="80"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
@@ -5564,7 +5530,7 @@
       <c r="Y90" s="80"/>
       <c r="Z90" s="80"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A91" s="80"/>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -5592,7 +5558,7 @@
       <c r="Y91" s="80"/>
       <c r="Z91" s="80"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A92" s="80"/>
       <c r="B92" s="80"/>
       <c r="C92" s="80"/>
@@ -5620,7 +5586,7 @@
       <c r="Y92" s="80"/>
       <c r="Z92" s="80"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A93" s="80"/>
       <c r="B93" s="80"/>
       <c r="C93" s="80"/>
@@ -5648,7 +5614,7 @@
       <c r="Y93" s="80"/>
       <c r="Z93" s="80"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A94" s="80"/>
       <c r="B94" s="80"/>
       <c r="C94" s="80"/>
@@ -5676,7 +5642,7 @@
       <c r="Y94" s="80"/>
       <c r="Z94" s="80"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A95" s="80"/>
       <c r="B95" s="80"/>
       <c r="C95" s="80"/>
@@ -5704,7 +5670,7 @@
       <c r="Y95" s="80"/>
       <c r="Z95" s="80"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A96" s="80"/>
       <c r="B96" s="80"/>
       <c r="C96" s="80"/>
@@ -5732,7 +5698,7 @@
       <c r="Y96" s="80"/>
       <c r="Z96" s="80"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A97" s="80"/>
       <c r="B97" s="80"/>
       <c r="C97" s="80"/>
@@ -5760,7 +5726,7 @@
       <c r="Y97" s="80"/>
       <c r="Z97" s="80"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A98" s="80"/>
       <c r="B98" s="80"/>
       <c r="C98" s="80"/>
@@ -5788,7 +5754,7 @@
       <c r="Y98" s="80"/>
       <c r="Z98" s="80"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A99" s="80"/>
       <c r="B99" s="80"/>
       <c r="C99" s="80"/>
@@ -5846,26 +5812,26 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.3046875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.69140625" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.4609375" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="60.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5875,7 +5841,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5885,7 +5851,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
@@ -5911,7 +5877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
@@ -5937,7 +5903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
@@ -5955,7 +5921,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="48" t="s">
         <v>61</v>
@@ -5971,7 +5937,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
         <v>62</v>
       </c>
@@ -5986,7 +5952,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="48" t="s">
         <v>63</v>
@@ -6002,7 +5968,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="48" t="s">
         <v>65</v>
@@ -6018,7 +5984,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="48" t="s">
         <v>66</v>
@@ -6034,7 +6000,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="48" t="s">
         <v>380</v>
@@ -6050,7 +6016,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="48" t="s">
         <v>67</v>
@@ -6066,7 +6032,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="48" t="s">
         <v>69</v>
@@ -6082,7 +6048,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="48" t="s">
         <v>39</v>
@@ -6102,7 +6068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="48" t="s">
         <v>120</v>
       </c>
@@ -6115,7 +6081,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="48" t="s">
         <v>388</v>
       </c>
@@ -6128,7 +6094,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="60" t="s">
         <v>72</v>
@@ -6144,7 +6110,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>73</v>
       </c>
@@ -6162,7 +6128,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="21" t="s">
         <v>189</v>
@@ -6179,7 +6145,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
         <v>191</v>
@@ -6196,7 +6162,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
         <v>353</v>
       </c>
@@ -6212,7 +6178,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>76</v>
       </c>
@@ -6227,7 +6193,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -6242,7 +6208,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -6257,7 +6223,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>82</v>
       </c>
@@ -6272,7 +6238,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>84</v>
@@ -6288,7 +6254,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -6306,7 +6272,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>90</v>
       </c>
@@ -6321,7 +6287,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
         <v>92</v>
       </c>
@@ -6336,7 +6302,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
@@ -6351,7 +6317,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
         <v>96</v>
       </c>
@@ -6366,7 +6332,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>98</v>
@@ -6382,7 +6348,7 @@
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6391,7 +6357,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="E35" s="21"/>
@@ -6399,13 +6365,13 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
-    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="101" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="101"/>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="25" t="s">
         <v>56</v>
       </c>
@@ -6413,19 +6379,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="49" t="s">
         <v>208</v>
       </c>
       <c r="C40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="51" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="51"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="52" t="s">
         <v>210</v>
       </c>
@@ -6433,7 +6399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="52" t="s">
         <v>212</v>
       </c>
@@ -6441,13 +6407,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="51"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="52" t="s">
         <v>214</v>
       </c>
@@ -6456,7 +6422,7 @@
       </c>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="52" t="s">
         <v>216</v>
       </c>
@@ -6465,7 +6431,7 @@
       </c>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="52" t="s">
         <v>218</v>
       </c>
@@ -6473,7 +6439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="52" t="s">
         <v>220</v>
       </c>
@@ -6481,7 +6447,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="52" t="s">
         <v>222</v>
       </c>
@@ -6489,7 +6455,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="52" t="s">
         <v>224</v>
       </c>
@@ -6497,7 +6463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="52" t="s">
         <v>226</v>
       </c>
@@ -6505,7 +6471,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="52" t="s">
         <v>228</v>
       </c>
@@ -6513,7 +6479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="52" t="s">
         <v>230</v>
       </c>
@@ -6521,7 +6487,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="52" t="s">
         <v>232</v>
       </c>
@@ -6529,7 +6495,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="52" t="s">
         <v>234</v>
       </c>
@@ -6537,7 +6503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="52" t="s">
         <v>236</v>
       </c>
@@ -6545,7 +6511,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="52" t="s">
         <v>238</v>
       </c>
@@ -6553,7 +6519,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="52" t="s">
         <v>240</v>
       </c>
@@ -6561,7 +6527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="52" t="s">
         <v>242</v>
       </c>
@@ -6569,7 +6535,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="52" t="s">
         <v>355</v>
       </c>
@@ -6577,7 +6543,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="52" t="s">
         <v>356</v>
       </c>
@@ -6585,7 +6551,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="52" t="s">
         <v>246</v>
       </c>
@@ -6593,7 +6559,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="52" t="s">
         <v>248</v>
       </c>
@@ -6601,13 +6567,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="51" t="s">
         <v>250</v>
       </c>
       <c r="C64" s="51"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="52" t="s">
         <v>251</v>
       </c>
@@ -6615,7 +6581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="52" t="s">
         <v>327</v>
       </c>
@@ -6623,7 +6589,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="52" t="s">
         <v>313</v>
       </c>
@@ -6631,7 +6597,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="52" t="s">
         <v>314</v>
       </c>
@@ -6639,7 +6605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="52" t="s">
         <v>315</v>
       </c>
@@ -6647,7 +6613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="52" t="s">
         <v>316</v>
       </c>
@@ -6655,7 +6621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="52" t="s">
         <v>317</v>
       </c>
@@ -6663,7 +6629,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="52" t="s">
         <v>318</v>
       </c>
@@ -6671,7 +6637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="52" t="s">
         <v>319</v>
       </c>
@@ -6679,7 +6645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="52" t="s">
         <v>320</v>
       </c>
@@ -6687,7 +6653,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="52" t="s">
         <v>321</v>
       </c>
@@ -6695,7 +6661,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="52" t="s">
         <v>322</v>
       </c>
@@ -6703,7 +6669,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="52" t="s">
         <v>323</v>
       </c>
@@ -6711,7 +6677,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="52" t="s">
         <v>324</v>
       </c>
@@ -6719,7 +6685,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="52" t="s">
         <v>357</v>
       </c>
@@ -6727,7 +6693,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="52" t="s">
         <v>358</v>
       </c>
@@ -6735,7 +6701,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="52" t="s">
         <v>359</v>
       </c>
@@ -6743,7 +6709,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="52" t="s">
         <v>325</v>
       </c>
@@ -6751,7 +6717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="52" t="s">
         <v>326</v>
       </c>
@@ -6759,13 +6725,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="51" t="s">
         <v>271</v>
       </c>
       <c r="C84" s="51"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="52" t="s">
         <v>272</v>
       </c>
@@ -6773,7 +6739,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="52" t="s">
         <v>274</v>
       </c>
@@ -6781,7 +6747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="52" t="s">
         <v>276</v>
       </c>
@@ -6789,7 +6755,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="52" t="s">
         <v>278</v>
       </c>
@@ -6797,7 +6763,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="52" t="s">
         <v>280</v>
       </c>
@@ -6805,13 +6771,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="51" t="s">
         <v>282</v>
       </c>
       <c r="C90" s="51"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="52" t="s">
         <v>360</v>
       </c>
@@ -6819,7 +6785,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="52" t="s">
         <v>361</v>
       </c>
@@ -6827,7 +6793,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="52" t="s">
         <v>285</v>
       </c>
@@ -6835,19 +6801,19 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C94" s="54"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="51" t="s">
         <v>287</v>
       </c>
       <c r="C95" s="51"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="52" t="s">
         <v>288</v>
       </c>
@@ -6855,7 +6821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="52" t="s">
         <v>290</v>
       </c>
@@ -6863,7 +6829,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="52" t="s">
         <v>292</v>
       </c>
@@ -6871,7 +6837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="52" t="s">
         <v>382</v>
       </c>
@@ -6879,7 +6845,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="52" t="s">
         <v>295</v>
       </c>
@@ -6887,7 +6853,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="52" t="s">
         <v>297</v>
       </c>
@@ -6895,7 +6861,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="52" t="s">
         <v>299</v>
       </c>
@@ -6903,13 +6869,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="51" t="s">
         <v>329</v>
       </c>
       <c r="C103" s="51"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="52" t="s">
         <v>346</v>
       </c>
@@ -6917,7 +6883,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="52" t="s">
         <v>347</v>
       </c>
@@ -6926,7 +6892,7 @@
       </c>
       <c r="J105" s="21"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="52" t="s">
         <v>348</v>
       </c>
@@ -6935,7 +6901,7 @@
       </c>
       <c r="J106" s="21"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="52" t="s">
         <v>349</v>
       </c>
@@ -6944,7 +6910,7 @@
       </c>
       <c r="J107" s="21"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="52" t="s">
         <v>350</v>
       </c>
@@ -6953,7 +6919,7 @@
       </c>
       <c r="J108" s="21"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="52" t="s">
         <v>351</v>
       </c>
@@ -6962,7 +6928,7 @@
       </c>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="52" t="s">
         <v>352</v>
       </c>
@@ -6971,14 +6937,14 @@
       </c>
       <c r="J110" s="21"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="51" t="s">
         <v>301</v>
       </c>
       <c r="C111" s="51"/>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="52" t="s">
         <v>334</v>
       </c>
@@ -6987,7 +6953,7 @@
       </c>
       <c r="J112" s="21"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="52" t="s">
         <v>335</v>
       </c>
@@ -6996,7 +6962,7 @@
       </c>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="52" t="s">
         <v>336</v>
       </c>
@@ -7005,7 +6971,7 @@
       </c>
       <c r="J114" s="21"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="52" t="s">
         <v>337</v>
       </c>
@@ -7014,7 +6980,7 @@
       </c>
       <c r="J115" s="21"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="52" t="s">
         <v>338</v>
       </c>
@@ -7023,7 +6989,7 @@
       </c>
       <c r="J116" s="21"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="52" t="s">
         <v>339</v>
       </c>
@@ -7032,7 +6998,7 @@
       </c>
       <c r="J117" s="21"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="52" t="s">
         <v>340</v>
       </c>
@@ -7041,14 +7007,14 @@
       </c>
       <c r="J118" s="21"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="51" t="s">
         <v>309</v>
       </c>
       <c r="C119" s="51"/>
       <c r="J119" s="21"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="52" t="s">
         <v>341</v>
       </c>
@@ -7056,7 +7022,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="52" t="s">
         <v>362</v>
       </c>
@@ -7064,7 +7030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="52" t="s">
         <v>342</v>
       </c>
@@ -7072,19 +7038,19 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="53" t="s">
         <v>364</v>
       </c>
       <c r="C123" s="54"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="51" t="s">
         <v>368</v>
       </c>
       <c r="C124" s="51"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="52" t="s">
         <v>377</v>
       </c>
@@ -7092,7 +7058,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="52" t="s">
         <v>375</v>
       </c>
@@ -7100,7 +7066,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="52" t="s">
         <v>376</v>
       </c>
@@ -7108,13 +7074,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="51" t="s">
         <v>371</v>
       </c>
       <c r="C128" s="51"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>378</v>
       </c>
@@ -7122,7 +7088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="28" t="s">
         <v>379</v>
       </c>
@@ -7144,34 +7110,35 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T164" sqref="T164"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="14" width="19.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" customWidth="1"/>
+    <col min="3" max="3" width="49.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.53515625" customWidth="1"/>
+    <col min="6" max="8" width="13.4609375" customWidth="1"/>
+    <col min="9" max="11" width="18.07421875" customWidth="1"/>
+    <col min="12" max="14" width="19.84375" customWidth="1"/>
+    <col min="16" max="16" width="16.3046875" customWidth="1"/>
+    <col min="17" max="17" width="12.3046875" customWidth="1"/>
+    <col min="18" max="18" width="15.3046875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="18.21875" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" customWidth="1"/>
-    <col min="34" max="34" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.07421875" customWidth="1"/>
+    <col min="21" max="21" width="14.53515625" customWidth="1"/>
+    <col min="22" max="22" width="18.23046875" customWidth="1"/>
+    <col min="24" max="24" width="11.84375" customWidth="1"/>
+    <col min="25" max="25" width="10.84375" customWidth="1"/>
+    <col min="34" max="34" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7184,7 +7151,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7213,7 +7180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -7242,7 +7209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
         <v>112</v>
       </c>
@@ -7255,7 +7222,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -7278,7 +7245,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -7301,7 +7268,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
         <v>113</v>
       </c>
@@ -7314,7 +7281,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -7334,7 +7301,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -7354,7 +7321,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -7375,7 +7342,7 @@
       <c r="I12" s="9"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -7396,7 +7363,7 @@
       <c r="I13" s="9"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -7417,7 +7384,7 @@
       <c r="I14" s="9"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -7437,7 +7404,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -7457,7 +7424,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -7477,7 +7444,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -7497,7 +7464,7 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -7517,7 +7484,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -7537,7 +7504,7 @@
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7557,7 +7524,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -7577,7 +7544,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -7597,7 +7564,7 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -7617,7 +7584,7 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -7637,7 +7604,7 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -7657,7 +7624,7 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -7677,7 +7644,7 @@
       </c>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -7697,7 +7664,7 @@
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B29" s="26" t="s">
         <v>114</v>
       </c>
@@ -7710,7 +7677,7 @@
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -7730,7 +7697,7 @@
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
@@ -7750,7 +7717,7 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
@@ -7770,7 +7737,7 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7790,7 +7757,7 @@
       </c>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
@@ -7810,7 +7777,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
@@ -7830,7 +7797,7 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7850,7 +7817,7 @@
       </c>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
@@ -7870,7 +7837,7 @@
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
@@ -7890,7 +7857,7 @@
       </c>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
@@ -7910,7 +7877,7 @@
       </c>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
@@ -7930,7 +7897,7 @@
       </c>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
@@ -7950,7 +7917,7 @@
       </c>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
@@ -7970,7 +7937,7 @@
       </c>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
@@ -7990,7 +7957,7 @@
       </c>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
@@ -8010,7 +7977,7 @@
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -8030,7 +7997,7 @@
       </c>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
@@ -8050,7 +8017,7 @@
       </c>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
@@ -8070,7 +8037,7 @@
       </c>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
@@ -8090,7 +8057,7 @@
       </c>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B49" s="26" t="s">
         <v>115</v>
       </c>
@@ -8103,7 +8070,7 @@
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
@@ -8123,7 +8090,7 @@
       </c>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
@@ -8143,7 +8110,7 @@
       </c>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
@@ -8163,7 +8130,7 @@
       </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
@@ -8183,7 +8150,7 @@
       </c>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
@@ -8203,7 +8170,7 @@
       </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
@@ -8216,7 +8183,7 @@
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -8236,7 +8203,7 @@
       </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
@@ -8256,7 +8223,7 @@
       </c>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
@@ -8276,7 +8243,7 @@
       </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B59" s="26" t="s">
         <v>117</v>
       </c>
@@ -8289,7 +8256,7 @@
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>28</v>
       </c>
@@ -8309,7 +8276,7 @@
       </c>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
@@ -8329,7 +8296,7 @@
       </c>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
@@ -8349,7 +8316,7 @@
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>28</v>
       </c>
@@ -8369,7 +8336,7 @@
       </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
@@ -8389,7 +8356,7 @@
       </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
@@ -8409,7 +8376,7 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
@@ -8429,7 +8396,7 @@
       </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B67" s="26" t="s">
         <v>328</v>
       </c>
@@ -8442,7 +8409,7 @@
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
@@ -8462,7 +8429,7 @@
       </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>28</v>
       </c>
@@ -8482,7 +8449,7 @@
       </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
@@ -8502,7 +8469,7 @@
       </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>28</v>
       </c>
@@ -8522,7 +8489,7 @@
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
@@ -8542,7 +8509,7 @@
       </c>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>28</v>
       </c>
@@ -8562,7 +8529,7 @@
       </c>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
@@ -8582,7 +8549,7 @@
       </c>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B75" s="26" t="s">
         <v>118</v>
       </c>
@@ -8595,7 +8562,7 @@
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>28</v>
       </c>
@@ -8615,7 +8582,7 @@
       </c>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>28</v>
       </c>
@@ -8635,7 +8602,7 @@
       </c>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>28</v>
       </c>
@@ -8655,7 +8622,7 @@
       </c>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
@@ -8675,7 +8642,7 @@
       </c>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>28</v>
       </c>
@@ -8695,7 +8662,7 @@
       </c>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>28</v>
       </c>
@@ -8715,7 +8682,7 @@
       </c>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>28</v>
       </c>
@@ -8735,7 +8702,7 @@
       </c>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B83" s="26" t="s">
         <v>119</v>
       </c>
@@ -8748,7 +8715,7 @@
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
@@ -8768,7 +8735,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>28</v>
       </c>
@@ -8788,7 +8755,7 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>28</v>
       </c>
@@ -8808,7 +8775,7 @@
       </c>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B87" s="26" t="s">
         <v>363</v>
       </c>
@@ -8822,7 +8789,7 @@
       <c r="J87" s="26"/>
       <c r="P87" s="21"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
@@ -8842,7 +8809,7 @@
       </c>
       <c r="P88" s="21"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
@@ -8862,7 +8829,7 @@
       </c>
       <c r="P89" s="21"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>28</v>
       </c>
@@ -8882,7 +8849,7 @@
       </c>
       <c r="P90" s="21"/>
     </row>
-    <row r="91" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B91" s="26" t="s">
         <v>374</v>
       </c>
@@ -8896,7 +8863,7 @@
       <c r="J91" s="26"/>
       <c r="P91" s="21"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="56" t="s">
         <v>28</v>
       </c>
@@ -8916,7 +8883,7 @@
       </c>
       <c r="P92" s="21"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="58" t="s">
         <v>28</v>
       </c>
@@ -8941,13 +8908,13 @@
       <c r="K93" s="46"/>
       <c r="P93" s="21"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P94" s="21"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D96" s="6" t="s">
         <v>0</v>
       </c>
@@ -8956,7 +8923,7 @@
       <c r="J96" s="7"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>1</v>
       </c>
@@ -9027,7 +8994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" ht="21" x14ac:dyDescent="0.3">
       <c r="B98" s="35" t="s">
         <v>31</v>
       </c>
@@ -9096,7 +9063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:24" ht="26.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="34" t="s">
         <v>35</v>
       </c>
@@ -9161,7 +9128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B100" s="26" t="s">
         <v>112</v>
       </c>
@@ -9188,7 +9155,7 @@
       <c r="W100" s="26"/>
       <c r="X100" s="26"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B101" t="str">
         <f>D7</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -9266,7 +9233,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B102" t="str">
         <f>D8</f>
         <v>T-MOT-EV_ELC01</v>
@@ -9344,7 +9311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B103" s="26" t="s">
         <v>113</v>
       </c>
@@ -9371,7 +9338,7 @@
       <c r="W103" s="26"/>
       <c r="X103" s="26"/>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B104" t="str">
         <f t="shared" ref="B104:B122" si="2">D10</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -9452,7 +9419,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B105" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DST21</v>
@@ -9533,7 +9500,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B106" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DF21</v>
@@ -9611,7 +9578,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B107" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_NGB21</v>
@@ -9624,8 +9591,8 @@
         <f>Commodities!B19&amp;","&amp;Commodities!B20&amp;","&amp;Commodities!B21</f>
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
-      <c r="E107">
-        <v>2019</v>
+      <c r="E107" s="97">
+        <v>2024</v>
       </c>
       <c r="F107" s="46">
         <v>0.41317922700087906</v>
@@ -9689,7 +9656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B108" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_E8521</v>
@@ -9702,8 +9669,8 @@
         <f>Commodities!B19&amp;","&amp;Commodities!B20&amp;","&amp;Commodities!B21</f>
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
-      <c r="E108">
-        <v>2019</v>
+      <c r="E108" s="97">
+        <v>2024</v>
       </c>
       <c r="F108" s="46">
         <v>0.38903594158617399</v>
@@ -9767,7 +9734,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B109" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_B10021</v>
@@ -9780,8 +9747,8 @@
         <f>Commodities!B19&amp;","&amp;Commodities!B20&amp;","&amp;Commodities!B21</f>
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
-      <c r="E109">
-        <v>2019</v>
+      <c r="E109" s="97">
+        <v>2050</v>
       </c>
       <c r="F109" s="46">
         <v>0.55562426143181531</v>
@@ -9845,7 +9812,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B110" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_GSL21</v>
@@ -9923,7 +9890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B111" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_DST21</v>
@@ -10001,7 +9968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B112" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -10079,7 +10046,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B113" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -10157,7 +10124,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B114" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -10235,7 +10202,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B115" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_DST21</v>
@@ -10313,7 +10280,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B116" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV20_DST21</v>
@@ -10391,7 +10358,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B117" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV40_DST21</v>
@@ -10469,7 +10436,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B118" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV100_ELC21</v>
@@ -10547,7 +10514,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B119" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV150_ELC21</v>
@@ -10625,7 +10592,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B120" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV250_ELC21</v>
@@ -10703,7 +10670,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B121" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_HYD21</v>
@@ -10781,7 +10748,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B122" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-FCV_HYD21</v>
@@ -10859,7 +10826,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B123" s="26" t="s">
         <v>114</v>
       </c>
@@ -10886,7 +10853,7 @@
       <c r="W123" s="26"/>
       <c r="X123" s="26"/>
     </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B124" t="str">
         <f t="shared" ref="B124:B142" si="7">D30</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -10964,7 +10931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B125" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_DST31</v>
@@ -11043,7 +11010,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B126" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_DF31</v>
@@ -11122,7 +11089,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B127" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_NGB31</v>
@@ -11201,7 +11168,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B128" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_E8531</v>
@@ -11280,7 +11247,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B129" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_B10031</v>
@@ -11359,7 +11326,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B130" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-HEV_GSL31</v>
@@ -11438,7 +11405,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B131" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-HEV_DST31</v>
@@ -11517,7 +11484,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B132" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -11596,7 +11563,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B133" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -11675,7 +11642,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B134" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -11754,7 +11721,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B135" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV10_DST31</v>
@@ -11833,7 +11800,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B136" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV20_DST31</v>
@@ -11912,7 +11879,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B137" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV40_DST31</v>
@@ -11991,7 +11958,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B138" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV100_ELC31</v>
@@ -12070,7 +12037,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B139" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV150_ELC31</v>
@@ -12149,7 +12116,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B140" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV250_ELC31</v>
@@ -12228,7 +12195,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B141" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_HYD31</v>
@@ -12307,7 +12274,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B142" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-FCV_HYD31</v>
@@ -12386,7 +12353,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B143" s="26" t="s">
         <v>115</v>
       </c>
@@ -12413,7 +12380,7 @@
       <c r="W143" s="26"/>
       <c r="X143" s="26"/>
     </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B144" t="str">
         <f>D50</f>
         <v>T-BUS-ICE_DST41</v>
@@ -12491,7 +12458,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B145" t="str">
         <f>D51</f>
         <v>T-BUS-ICE_B10041</v>
@@ -12569,7 +12536,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B146" t="str">
         <f>D52</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -12647,7 +12614,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B147" t="str">
         <f>D53</f>
         <v>T-BUS-BEV_ELC41</v>
@@ -12725,7 +12692,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B148" t="str">
         <f>D54</f>
         <v>T-BUS-FCV_HYD41</v>
@@ -12803,7 +12770,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B149" s="26" t="s">
         <v>116</v>
       </c>
@@ -12830,7 +12797,7 @@
       <c r="W149" s="26"/>
       <c r="X149" s="26"/>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B150" t="str">
         <f>D56</f>
         <v>T-LPT-BEV_ELC51</v>
@@ -12908,7 +12875,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B151" t="str">
         <f>D57</f>
         <v>T-HPT-BEV_ELC51</v>
@@ -12986,7 +12953,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B152" t="str">
         <f>D58</f>
         <v>T-HPT-ICE_DST51</v>
@@ -13064,7 +13031,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B153" s="26" t="s">
         <v>117</v>
       </c>
@@ -13091,7 +13058,7 @@
       <c r="W153" s="26"/>
       <c r="X153" s="26"/>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B154" t="str">
         <f t="shared" ref="B154:B160" si="16">D60</f>
         <v>T-LGT-ICE_DST61</v>
@@ -13159,7 +13126,7 @@
       <c r="U154" s="46">
         <v>5</v>
       </c>
-      <c r="V154" s="97">
+      <c r="V154" s="96">
         <v>0.04</v>
       </c>
       <c r="W154">
@@ -13169,7 +13136,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B155" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-HEV_DST61</v>
@@ -13237,7 +13204,7 @@
       <c r="U155" s="46">
         <v>5</v>
       </c>
-      <c r="V155" s="97">
+      <c r="V155" s="96">
         <v>0.04</v>
       </c>
       <c r="W155">
@@ -13247,7 +13214,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B156" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-PHEV_DST61</v>
@@ -13315,7 +13282,7 @@
       <c r="U156" s="46">
         <v>5</v>
       </c>
-      <c r="V156" s="97">
+      <c r="V156" s="96">
         <v>0.04</v>
       </c>
       <c r="W156">
@@ -13325,7 +13292,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B157" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-ICE_NGB61</v>
@@ -13393,7 +13360,7 @@
       <c r="U157" s="46">
         <v>5</v>
       </c>
-      <c r="V157" s="97">
+      <c r="V157" s="96">
         <v>0.04</v>
       </c>
       <c r="W157">
@@ -13403,7 +13370,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B158" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-PHEV_NGB61</v>
@@ -13471,7 +13438,7 @@
       <c r="U158" s="46">
         <v>5</v>
       </c>
-      <c r="V158" s="97">
+      <c r="V158" s="96">
         <v>0.04</v>
       </c>
       <c r="W158">
@@ -13481,7 +13448,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B159" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-FCV_HYD61</v>
@@ -13549,7 +13516,7 @@
       <c r="U159" s="46">
         <v>5</v>
       </c>
-      <c r="V159" s="97">
+      <c r="V159" s="96">
         <v>0.04</v>
       </c>
       <c r="W159">
@@ -13559,7 +13526,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B160" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-BEV_ELC61</v>
@@ -13627,7 +13594,7 @@
       <c r="U160" s="46">
         <v>5</v>
       </c>
-      <c r="V160" s="97">
+      <c r="V160" s="96">
         <v>0.04</v>
       </c>
       <c r="W160">
@@ -13637,7 +13604,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B161" s="26" t="s">
         <v>328</v>
       </c>
@@ -13660,11 +13627,11 @@
       <c r="S161" s="26"/>
       <c r="T161" s="26"/>
       <c r="U161" s="26"/>
-      <c r="V161" s="96"/>
+      <c r="V161" s="95"/>
       <c r="W161" s="26"/>
       <c r="X161" s="26"/>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B162" t="str">
         <f t="shared" ref="B162:B168" si="21">D68</f>
         <v>T-MGT-ICE_DST71</v>
@@ -13750,7 +13717,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B163" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_DST71</v>
@@ -13837,7 +13804,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B164" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-FCV_HYD71</v>
@@ -13923,7 +13890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B165" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_NGB71</v>
@@ -14010,7 +13977,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B166" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_NGB71</v>
@@ -14097,7 +14064,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B167" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_LNG71</v>
@@ -14112,7 +14079,7 @@
       </c>
       <c r="E167">
         <f t="shared" si="27"/>
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="F167" s="46">
         <v>2.2386549470658205E-2</v>
@@ -14184,7 +14151,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B168" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-BEV_ELC71</v>
@@ -14271,7 +14238,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="169" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B169" s="26" t="s">
         <v>118</v>
       </c>
@@ -14294,11 +14261,11 @@
       <c r="S169" s="26"/>
       <c r="T169" s="26"/>
       <c r="U169" s="26"/>
-      <c r="V169" s="96"/>
+      <c r="V169" s="95"/>
       <c r="W169" s="26"/>
       <c r="X169" s="26"/>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B170" t="str">
         <f t="shared" ref="B170:B176" si="32">D76</f>
         <v>T-HGT-ICE_DST81</v>
@@ -14366,8 +14333,8 @@
       <c r="U170" s="46">
         <v>5</v>
       </c>
-      <c r="V170" s="95">
-        <v>8</v>
+      <c r="V170" s="96">
+        <v>8.5139999999999993</v>
       </c>
       <c r="W170">
         <v>20</v>
@@ -14376,7 +14343,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B171" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_DST81</v>
@@ -14444,9 +14411,9 @@
       <c r="U171" s="46">
         <v>5</v>
       </c>
-      <c r="V171" s="95">
+      <c r="V171" s="96">
         <f>V170</f>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W171">
         <v>20</v>
@@ -14455,7 +14422,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B172" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-FCV_HYD81</v>
@@ -14523,9 +14490,9 @@
       <c r="U172" s="46">
         <v>5</v>
       </c>
-      <c r="V172" s="95">
+      <c r="V172" s="96">
         <f t="shared" ref="V172:V176" si="38">V171</f>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W172">
         <v>20</v>
@@ -14534,7 +14501,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B173" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_NGB81</v>
@@ -14602,9 +14569,9 @@
       <c r="U173" s="46">
         <v>5</v>
       </c>
-      <c r="V173" s="95">
+      <c r="V173" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W173">
         <v>20</v>
@@ -14613,7 +14580,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B174" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_NGB81</v>
@@ -14681,9 +14648,9 @@
       <c r="U174" s="46">
         <v>5</v>
       </c>
-      <c r="V174" s="95">
+      <c r="V174" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W174">
         <v>20</v>
@@ -14692,7 +14659,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B175" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_LNG81</v>
@@ -14705,8 +14672,8 @@
         <f t="shared" si="37"/>
         <v>TRAF</v>
       </c>
-      <c r="E175">
-        <v>2019</v>
+      <c r="E175" s="8">
+        <v>2050</v>
       </c>
       <c r="F175" s="46">
         <v>2.2386549470658205E-2</v>
@@ -14760,9 +14727,9 @@
       <c r="U175" s="46">
         <v>5</v>
       </c>
-      <c r="V175" s="95">
+      <c r="V175" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W175">
         <v>20</v>
@@ -14771,7 +14738,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B176" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-BEV_ELC81</v>
@@ -14839,9 +14806,9 @@
       <c r="U176" s="46">
         <v>5</v>
       </c>
-      <c r="V176" s="95">
+      <c r="V176" s="96">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>8.5139999999999993</v>
       </c>
       <c r="W176">
         <v>20</v>
@@ -14850,7 +14817,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B177" s="26" t="s">
         <v>119</v>
       </c>
@@ -14877,7 +14844,7 @@
       <c r="W177" s="26"/>
       <c r="X177" s="26"/>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B178" t="str">
         <f>D84</f>
         <v>T-GTR-ICE_DST91</v>
@@ -14955,7 +14922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B179" t="str">
         <f>D85</f>
         <v>T-GTR-BEV_ELC91</v>
@@ -15033,7 +15000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B180" t="str">
         <f>D86</f>
         <v>T-GTR-FCV_HYD91</v>
@@ -15111,7 +15078,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B181" s="26" t="s">
         <v>363</v>
       </c>
@@ -15138,7 +15105,7 @@
       <c r="W181" s="26"/>
       <c r="X181" s="26"/>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B182" t="str">
         <f>D88</f>
         <v>T-TUR_NEW</v>
@@ -15168,7 +15135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B183" t="str">
         <f t="shared" ref="B183:B184" si="42">D89</f>
         <v>T-NAV_NEW</v>
@@ -15198,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B184" t="str">
         <f t="shared" si="42"/>
         <v>T-OTH_NEW</v>
@@ -15228,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B185" s="26" t="s">
         <v>374</v>
       </c>
@@ -15255,7 +15222,7 @@
       <c r="W185" s="26"/>
       <c r="X185" s="26"/>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B186" t="str">
         <f>Commodities!B129</f>
         <v>T-AVI_DOM_NEW</v>
@@ -15285,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B187" s="28" t="str">
         <f>Commodities!B130</f>
         <v>T-AVI_INT_NEW</v>
@@ -15329,10 +15296,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R190" s="46"/>
     </row>
-    <row r="193" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" ht="14.6" x14ac:dyDescent="0.4">
       <c r="D193" s="77" t="s">
         <v>0</v>
       </c>
@@ -15341,7 +15308,7 @@
       <c r="H193" s="75"/>
       <c r="I193" s="75"/>
     </row>
-    <row r="194" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="14.6" x14ac:dyDescent="0.3">
       <c r="B194" s="23" t="s">
         <v>1</v>
       </c>
@@ -15364,7 +15331,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="61" t="str">
         <f>B101</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -15389,7 +15356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="64" t="str">
         <f>B195</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -15414,7 +15381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="69" t="str">
         <f>B104</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -15439,7 +15406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="69" t="str">
         <f>B197</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -15464,7 +15431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="69" t="str">
         <f>B105</f>
         <v>T-CAR-ICE_DST21</v>
@@ -15489,7 +15456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="69" t="str">
         <f>B199</f>
         <v>T-CAR-ICE_DST21</v>
@@ -15514,7 +15481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="69" t="str">
         <f>B106</f>
         <v>T-CAR-ICE_DF21</v>
@@ -15539,7 +15506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="69" t="str">
         <f>B201</f>
         <v>T-CAR-ICE_DF21</v>
@@ -15564,7 +15531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="69" t="str">
         <f>B107</f>
         <v>T-CAR-ICE_NGB21</v>
@@ -15589,7 +15556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="69" t="str">
         <f>B203</f>
         <v>T-CAR-ICE_NGB21</v>
@@ -15614,7 +15581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="69" t="str">
         <f>TRA!B108</f>
         <v>T-CAR-ICE_E8521</v>
@@ -15639,7 +15606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="69" t="str">
         <f>B205</f>
         <v>T-CAR-ICE_E8521</v>
@@ -15664,7 +15631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="69" t="str">
         <f>B110</f>
         <v>T-CAR-HEV_GSL21</v>
@@ -15689,7 +15656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="69" t="str">
         <f>B207</f>
         <v>T-CAR-HEV_GSL21</v>
@@ -15714,7 +15681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="69" t="str">
         <f>B111</f>
         <v>T-CAR-HEV_DST21</v>
@@ -15739,7 +15706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B210" s="69" t="str">
         <f>B209</f>
         <v>T-CAR-HEV_DST21</v>
@@ -15764,7 +15731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="69" t="str">
         <f>B112</f>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -15789,7 +15756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B212" s="69" t="str">
         <f>B211</f>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -15814,7 +15781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="69" t="str">
         <f>B113</f>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -15839,7 +15806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" s="69" t="str">
         <f>B213</f>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -15864,7 +15831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="69" t="str">
         <f>B114</f>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -15889,7 +15856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="69" t="str">
         <f>B215</f>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -15914,7 +15881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="69" t="str">
         <f>B115</f>
         <v>T-CAR-PHEV10_DST21</v>
@@ -15938,7 +15905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="69" t="str">
         <f>B217</f>
         <v>T-CAR-PHEV10_DST21</v>
@@ -15962,7 +15929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="69" t="str">
         <f>B116</f>
         <v>T-CAR-PHEV20_DST21</v>
@@ -15987,7 +15954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" s="69" t="str">
         <f>B219</f>
         <v>T-CAR-PHEV20_DST21</v>
@@ -16012,7 +15979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="69" t="str">
         <f>B117</f>
         <v>T-CAR-PHEV40_DST21</v>
@@ -16037,7 +16004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="69" t="str">
         <f>B221</f>
         <v>T-CAR-PHEV40_DST21</v>
@@ -16062,7 +16029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="64" t="str">
         <f>B124</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -16092,7 +16059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="64" t="str">
         <f>B223</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -16122,7 +16089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="64" t="str">
         <f>B125</f>
         <v>T-TAX-ICE_DST31</v>
@@ -16152,7 +16119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="64" t="str">
         <f>B225</f>
         <v>T-TAX-ICE_DST31</v>
@@ -16182,7 +16149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="64" t="str">
         <f>B126</f>
         <v>T-TAX-ICE_DF31</v>
@@ -16212,7 +16179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="64" t="str">
         <f>B227</f>
         <v>T-TAX-ICE_DF31</v>
@@ -16242,7 +16209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="64" t="str">
         <f>B127</f>
         <v>T-TAX-ICE_NGB31</v>
@@ -16272,7 +16239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="64" t="str">
         <f>B229</f>
         <v>T-TAX-ICE_NGB31</v>
@@ -16302,7 +16269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" s="64" t="str">
         <f>B128</f>
         <v>T-TAX-ICE_E8531</v>
@@ -16332,7 +16299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="64" t="str">
         <f>B231</f>
         <v>T-TAX-ICE_E8531</v>
@@ -16362,7 +16329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" s="64" t="str">
         <f>B130</f>
         <v>T-TAX-HEV_GSL31</v>
@@ -16392,7 +16359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" s="64" t="str">
         <f>B233</f>
         <v>T-TAX-HEV_GSL31</v>
@@ -16422,7 +16389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="64" t="str">
         <f>B131</f>
         <v>T-TAX-HEV_DST31</v>
@@ -16452,7 +16419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B236" s="64" t="str">
         <f>B235</f>
         <v>T-TAX-HEV_DST31</v>
@@ -16482,7 +16449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B237" s="64" t="str">
         <f>B132</f>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -16512,7 +16479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="64" t="str">
         <f>B237</f>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -16542,7 +16509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B239" s="64" t="str">
         <f>B133</f>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -16572,7 +16539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B240" s="64" t="str">
         <f>B239</f>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -16602,7 +16569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B241" s="64" t="str">
         <f>B134</f>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -16632,7 +16599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" s="64" t="str">
         <f>B241</f>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -16662,7 +16629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B243" s="64" t="str">
         <f>B135</f>
         <v>T-TAX-PHEV10_DST31</v>
@@ -16692,7 +16659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="64" t="str">
         <f>B243</f>
         <v>T-TAX-PHEV10_DST31</v>
@@ -16722,7 +16689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="64" t="str">
         <f>B136</f>
         <v>T-TAX-PHEV20_DST31</v>
@@ -16752,7 +16719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="64" t="str">
         <f>B245</f>
         <v>T-TAX-PHEV20_DST31</v>
@@ -16782,7 +16749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="64" t="str">
         <f>B137</f>
         <v>T-TAX-PHEV40_DST31</v>
@@ -16812,7 +16779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="64" t="str">
         <f>B247</f>
         <v>T-TAX-PHEV40_DST31</v>
@@ -16842,7 +16809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="69" t="str">
         <f>B144</f>
         <v>T-BUS-ICE_DST41</v>
@@ -16856,7 +16823,7 @@
         <v>UP</v>
       </c>
       <c r="E249" s="62">
-        <v>0.95903634682608185</v>
+        <v>1</v>
       </c>
       <c r="F249" s="62">
         <v>1</v>
@@ -16868,7 +16835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="69" t="str">
         <f>B249</f>
         <v>T-BUS-ICE_DST41</v>
@@ -16894,7 +16861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="69" t="str">
         <f>B146</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -16908,10 +16875,11 @@
         <v>UP</v>
       </c>
       <c r="E251" s="62">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F251" s="62">
-        <v>0.5</v>
+        <f>E251</f>
+        <v>0.95</v>
       </c>
       <c r="G251" s="62">
         <v>1</v>
@@ -16920,7 +16888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="69" t="str">
         <f>B251</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -16934,10 +16902,12 @@
         <v>LO</v>
       </c>
       <c r="E252" s="62">
-        <v>0.5</v>
+        <f>E251</f>
+        <v>0.95</v>
       </c>
       <c r="F252" s="62">
-        <v>0.5</v>
+        <f>F251</f>
+        <v>0.95</v>
       </c>
       <c r="G252" s="62">
         <v>0</v>
@@ -16946,7 +16916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="64" t="str">
         <f>B152</f>
         <v>T-HPT-ICE_DST51</v>
@@ -16971,7 +16941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="64" t="str">
         <f>B253</f>
         <v>T-HPT-ICE_DST51</v>
@@ -16996,7 +16966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="69" t="str">
         <f>B154</f>
         <v>T-LGT-ICE_DST61</v>
@@ -17021,7 +16991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="69" t="str">
         <f>B255</f>
         <v>T-LGT-ICE_DST61</v>
@@ -17046,7 +17016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" s="69" t="str">
         <f>B155</f>
         <v>T-LGT-HEV_DST61</v>
@@ -17071,7 +17041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" s="69" t="str">
         <f>B257</f>
         <v>T-LGT-HEV_DST61</v>
@@ -17096,7 +17066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" s="69" t="str">
         <f>B156</f>
         <v>T-LGT-PHEV_DST61</v>
@@ -17121,7 +17091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" s="69" t="str">
         <f>B259</f>
         <v>T-LGT-PHEV_DST61</v>
@@ -17146,7 +17116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" s="69" t="str">
         <f>B157</f>
         <v>T-LGT-ICE_NGB61</v>
@@ -17171,7 +17141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="69" t="str">
         <f>B261</f>
         <v>T-LGT-ICE_NGB61</v>
@@ -17196,7 +17166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="69" t="str">
         <f>B158</f>
         <v>T-LGT-PHEV_NGB61</v>
@@ -17221,7 +17191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" s="69" t="str">
         <f>B263</f>
         <v>T-LGT-PHEV_NGB61</v>
@@ -17246,7 +17216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="64" t="str">
         <f>B162</f>
         <v>T-MGT-ICE_DST71</v>
@@ -17271,7 +17241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" s="64" t="str">
         <f>B265</f>
         <v>T-MGT-ICE_DST71</v>
@@ -17296,7 +17266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="64" t="str">
         <f>B163</f>
         <v>T-MGT-HEV_DST71</v>
@@ -17321,7 +17291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="64" t="str">
         <f>B267</f>
         <v>T-MGT-HEV_DST71</v>
@@ -17346,7 +17316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B269" s="64" t="str">
         <f>B165</f>
         <v>T-MGT-ICE_NGB71</v>
@@ -17371,7 +17341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="64" t="str">
         <f>B269</f>
         <v>T-MGT-ICE_NGB71</v>
@@ -17396,7 +17366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" s="64" t="str">
         <f>B166</f>
         <v>T-MGT-HEV_NGB71</v>
@@ -17421,7 +17391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" s="64" t="str">
         <f>B271</f>
         <v>T-MGT-HEV_NGB71</v>
@@ -17446,7 +17416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" s="69" t="str">
         <f>B170</f>
         <v>T-HGT-ICE_DST81</v>
@@ -17471,7 +17441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B274" s="69" t="str">
         <f>B273</f>
         <v>T-HGT-ICE_DST81</v>
@@ -17496,7 +17466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" s="69" t="str">
         <f>B171</f>
         <v>T-HGT-HEV_DST81</v>
@@ -17521,7 +17491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" s="69" t="str">
         <f>B275</f>
         <v>T-HGT-HEV_DST81</v>
@@ -17546,7 +17516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" s="69" t="str">
         <f>B173</f>
         <v>T-HGT-ICE_NGB81</v>
@@ -17571,7 +17541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" s="69" t="str">
         <f>B277</f>
         <v>T-HGT-ICE_NGB81</v>
@@ -17596,7 +17566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" s="69" t="str">
         <f>B174</f>
         <v>T-HGT-HEV_NGB81</v>
@@ -17621,7 +17591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B280" s="69" t="str">
         <f>B279</f>
         <v>T-HGT-HEV_NGB81</v>
@@ -17646,7 +17616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B281" s="64" t="str">
         <f>B178</f>
         <v>T-GTR-ICE_DST91</v>
@@ -17671,7 +17641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B282" s="64" t="str">
         <f>B281</f>
         <v>T-GTR-ICE_DST91</v>
@@ -17696,7 +17666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B283" s="69" t="str">
         <f>B182</f>
         <v>T-TUR_NEW</v>
@@ -17721,7 +17691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B284" s="69" t="str">
         <f>B283</f>
         <v>T-TUR_NEW</v>
@@ -17746,7 +17716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B285" s="69" t="str">
         <f>B182</f>
         <v>T-TUR_NEW</v>
@@ -17771,7 +17741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B286" s="69" t="str">
         <f>B285</f>
         <v>T-TUR_NEW</v>
@@ -17796,7 +17766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B287" s="64" t="str">
         <f>B183</f>
         <v>T-NAV_NEW</v>
@@ -17821,7 +17791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B288" s="64" t="str">
         <f>B287</f>
         <v>T-NAV_NEW</v>
@@ -17846,7 +17816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B289" s="69" t="str">
         <f>B184</f>
         <v>T-OTH_NEW</v>
@@ -17871,7 +17841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B290" s="69" t="str">
         <f>B289</f>
         <v>T-OTH_NEW</v>
@@ -17896,7 +17866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B291" s="69" t="str">
         <f t="shared" ref="B291:B294" si="49">B290</f>
         <v>T-OTH_NEW</v>
@@ -17921,7 +17891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B292" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17946,7 +17916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B293" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17971,7 +17941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B294" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17996,7 +17966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B295" s="64" t="str">
         <f>B186</f>
         <v>T-AVI_DOM_NEW</v>
@@ -18021,7 +17991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B296" s="64" t="str">
         <f>B295</f>
         <v>T-AVI_DOM_NEW</v>
@@ -18046,7 +18016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B297" s="64" t="str">
         <f>B187</f>
         <v>T-AVI_INT_NEW</v>
@@ -18071,7 +18041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B298" s="68" t="str">
         <f>B297</f>
         <v>T-AVI_INT_NEW</v>
@@ -18116,19 +18086,19 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="11" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.3046875" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" customWidth="1"/>
+    <col min="3" max="11" width="14.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -18163,7 +18133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -18198,7 +18168,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -18237,7 +18207,7 @@
         <v>4.044339163234481E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -18276,7 +18246,7 @@
         <v>7.0982279191462321E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -18315,7 +18285,7 @@
         <v>3.9667538813275338E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -18354,7 +18324,7 @@
         <v>3.4071494011901911E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -18393,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -18432,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -18471,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -18510,7 +18480,7 @@
         <v>9.7889515257063141E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -18549,7 +18519,7 @@
         <v>2.81535528281486E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -18588,7 +18558,7 @@
         <v>5.7611198692605467E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -18627,7 +18597,7 @@
         <v>8.8694833975750467E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -18666,7 +18636,7 @@
         <v>1.0399729276888665E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -18705,7 +18675,7 @@
         <v>9.0378599668199111E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -18744,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -18783,7 +18753,7 @@
         <v>4.9027295162475133E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -18822,7 +18792,7 @@
         <v>7.5934531228075966E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -18861,7 +18831,7 @@
         <v>5.7817542527464363E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -18900,7 +18870,7 @@
         <v>8.2620071477504387E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -18939,7 +18909,7 @@
         <v>3.8875178487417154E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -18978,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -19017,7 +18987,7 @@
         <v>1.7844614838597853E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -19056,7 +19026,7 @@
         <v>3.2627087167889597E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -19095,7 +19065,7 @@
         <v>4.7624157085434599E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -19134,7 +19104,7 @@
         <v>6.1160312652178582E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -19173,7 +19143,7 @@
         <v>7.6570070239441387E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -19212,7 +19182,7 @@
         <v>4.0385615358584315E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -19251,7 +19221,7 @@
         <v>4.4355670741269594E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -19290,7 +19260,7 @@
         <v>6.0252399778799404E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -19329,7 +19299,7 @@
         <v>5.8395305265069287E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -19368,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -19407,7 +19377,7 @@
         <v>2.9713512219681899E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -19446,7 +19416,7 @@
         <v>7.1543534422278537E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -19485,7 +19455,7 @@
         <v>8.253753394356084E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -19524,7 +19494,7 @@
         <v>6.1077775118235022E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -19563,7 +19533,7 @@
         <v>1.5434518847445876E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -19602,7 +19572,7 @@
         <v>1.0143862921663627E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -19641,7 +19611,7 @@
         <v>9.9045040732272994E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -19680,7 +19650,7 @@
         <v>9.4786103980785269E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -19719,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -19758,7 +19728,7 @@
         <v>0.1113926558102297</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -19797,17 +19767,17 @@
         <v>1.3948843236461781E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -19839,7 +19809,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -19871,7 +19841,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -19903,7 +19873,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -19935,7 +19905,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -19967,7 +19937,7 @@
         <v>37720</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -19999,7 +19969,7 @@
         <v>37990</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -20031,7 +20001,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -20063,7 +20033,7 @@
         <v>40395</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -20095,17 +20065,17 @@
         <v>73975</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>123</v>
       </c>
@@ -20137,7 +20107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -20182,7 +20152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -20227,7 +20197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -20272,7 +20242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -20317,7 +20287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>162</v>
       </c>
@@ -20362,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -20407,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -20452,7 +20422,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -20497,7 +20467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A73" s="40" t="s">
         <v>177</v>
       </c>
@@ -20542,12 +20512,12 @@
         <v>931</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -20579,7 +20549,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -20624,7 +20594,7 @@
         <v>2.5412637704730561E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -20669,7 +20639,7 @@
         <v>1.270631885236528E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -20714,7 +20684,7 @@
         <v>2.5412637704730561E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -20759,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -20804,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -20849,7 +20819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -20894,7 +20864,7 @@
         <v>1.1003672126148334E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -20939,7 +20909,7 @@
         <v>7.6237913114191687E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A87" s="40" t="s">
         <v>177</v>
       </c>
@@ -20984,7 +20954,7 @@
         <v>1.1829582851552077E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A90" s="43" t="s">
         <v>64</v>
       </c>
@@ -20993,7 +20963,7 @@
         <v>21831.587082756254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A91" s="43" t="s">
         <v>179</v>
       </c>
@@ -21002,12 +20972,12 @@
         <v>20290.14478354996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
@@ -21017,7 +20987,7 @@
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>

--- a/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-2019-2023calib\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E26F09C-FEC3-403A-8BAD-D3367FF7701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725502B-6C1F-4753-9C7C-403B29EFC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -1596,7 +1596,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2960,21 +2960,21 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="21.69140625" style="81" customWidth="1"/>
-    <col min="5" max="6" width="14.07421875" style="81" customWidth="1"/>
-    <col min="7" max="7" width="12.07421875" style="81" customWidth="1"/>
-    <col min="8" max="10" width="8.07421875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="9.69140625" style="81" customWidth="1"/>
-    <col min="12" max="12" width="8.07421875" style="81" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="81" customWidth="1"/>
+    <col min="5" max="6" width="14.08984375" style="81" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" style="81" customWidth="1"/>
+    <col min="8" max="10" width="8.08984375" style="81" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="81" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" style="81" customWidth="1"/>
     <col min="13" max="13" width="10" style="81" customWidth="1"/>
-    <col min="14" max="14" width="11.4609375" style="81" customWidth="1"/>
-    <col min="15" max="15" width="13.4609375" style="81" customWidth="1"/>
-    <col min="16" max="16384" width="8.84375" style="81"/>
+    <col min="14" max="14" width="11.453125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="81" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26">
       <c r="A1" s="79"/>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -3002,7 +3002,7 @@
       <c r="Y1" s="80"/>
       <c r="Z1" s="80"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -3030,7 +3030,7 @@
       <c r="Y2" s="80"/>
       <c r="Z2" s="80"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -3058,7 +3058,7 @@
       <c r="Y3" s="80"/>
       <c r="Z3" s="80"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -3086,7 +3086,7 @@
       <c r="Y4" s="80"/>
       <c r="Z4" s="80"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -3114,7 +3114,7 @@
       <c r="Y5" s="80"/>
       <c r="Z5" s="80"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26">
       <c r="A6" s="79"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -3142,7 +3142,7 @@
       <c r="Y6" s="80"/>
       <c r="Z6" s="80"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26">
       <c r="A7" s="79"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -3170,7 +3170,7 @@
       <c r="Y7" s="80"/>
       <c r="Z7" s="80"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26">
       <c r="A8" s="79"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -3198,7 +3198,7 @@
       <c r="Y8" s="80"/>
       <c r="Z8" s="80"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26">
       <c r="A9" s="79"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -3226,7 +3226,7 @@
       <c r="Y9" s="80"/>
       <c r="Z9" s="80"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -3254,7 +3254,7 @@
       <c r="Y10" s="80"/>
       <c r="Z10" s="80"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26">
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -3282,7 +3282,7 @@
       <c r="Y11" s="80"/>
       <c r="Z11" s="80"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -3310,7 +3310,7 @@
       <c r="Y12" s="80"/>
       <c r="Z12" s="80"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -3338,7 +3338,7 @@
       <c r="Y13" s="80"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26">
       <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -3366,7 +3366,7 @@
       <c r="Y14" s="80"/>
       <c r="Z14" s="80"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26">
       <c r="A15" s="79"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -3394,7 +3394,7 @@
       <c r="Y15" s="80"/>
       <c r="Z15" s="80"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="99" t="s">
         <v>389</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="Y16" s="80"/>
       <c r="Z16" s="80"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -3452,7 +3452,7 @@
       <c r="Y17" s="80"/>
       <c r="Z17" s="80"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -3480,7 +3480,7 @@
       <c r="Y18" s="80"/>
       <c r="Z18" s="80"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="87" t="s">
         <v>390</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="Y19" s="80"/>
       <c r="Z19" s="80"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="87" t="s">
         <v>391</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="Y20" s="80"/>
       <c r="Z20" s="80"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="87" t="s">
         <v>392</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="Y21" s="80"/>
       <c r="Z21" s="80"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
       <c r="A22" s="87"/>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
@@ -3604,7 +3604,7 @@
       <c r="Y22" s="80"/>
       <c r="Z22" s="80"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="87" t="s">
         <v>393</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="Y23" s="80"/>
       <c r="Z23" s="80"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="87"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -3664,7 +3664,7 @@
       <c r="Y24" s="80"/>
       <c r="Z24" s="80"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="87"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -3692,7 +3692,7 @@
       <c r="Y25" s="80"/>
       <c r="Z25" s="80"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="87" t="s">
         <v>394</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="Y26" s="80"/>
       <c r="Z26" s="80"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="87"/>
       <c r="B27" s="98"/>
       <c r="C27" s="98"/>
@@ -3752,7 +3752,7 @@
       <c r="Y27" s="80"/>
       <c r="Z27" s="80"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
       <c r="A28" s="87"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -3780,7 +3780,7 @@
       <c r="Y28" s="80"/>
       <c r="Z28" s="80"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="87" t="s">
         <v>395</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="Y29" s="80"/>
       <c r="Z29" s="80"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="87" t="s">
         <v>396</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="Y30" s="80"/>
       <c r="Z30" s="80"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="87" t="s">
         <v>398</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="Y31" s="80"/>
       <c r="Z31" s="80"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="93"/>
       <c r="B32" s="94" t="s">
         <v>400</v>
@@ -3906,7 +3906,7 @@
       <c r="Y32" s="80"/>
       <c r="Z32" s="80"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
@@ -3934,7 +3934,7 @@
       <c r="Y33" s="80"/>
       <c r="Z33" s="80"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26">
       <c r="A34" s="79"/>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -3962,7 +3962,7 @@
       <c r="Y34" s="80"/>
       <c r="Z34" s="80"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26">
       <c r="A35" s="79"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -3990,7 +3990,7 @@
       <c r="Y35" s="80"/>
       <c r="Z35" s="80"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26">
       <c r="A36" s="79"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
@@ -4018,7 +4018,7 @@
       <c r="Y36" s="80"/>
       <c r="Z36" s="80"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -4046,7 +4046,7 @@
       <c r="Y37" s="80"/>
       <c r="Z37" s="80"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26">
       <c r="A38" s="79"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
@@ -4074,7 +4074,7 @@
       <c r="Y38" s="80"/>
       <c r="Z38" s="80"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26">
       <c r="A39" s="79"/>
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
@@ -4102,7 +4102,7 @@
       <c r="Y39" s="80"/>
       <c r="Z39" s="80"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26">
       <c r="A40" s="79"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
@@ -4130,7 +4130,7 @@
       <c r="Y40" s="80"/>
       <c r="Z40" s="80"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26">
       <c r="A41" s="79"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
@@ -4158,7 +4158,7 @@
       <c r="Y41" s="80"/>
       <c r="Z41" s="80"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26">
       <c r="A42" s="79"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -4186,7 +4186,7 @@
       <c r="Y42" s="80"/>
       <c r="Z42" s="80"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26">
       <c r="A43" s="80"/>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -4214,7 +4214,7 @@
       <c r="Y43" s="80"/>
       <c r="Z43" s="80"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26">
       <c r="A44" s="80"/>
       <c r="B44" s="80"/>
       <c r="C44" s="80"/>
@@ -4242,7 +4242,7 @@
       <c r="Y44" s="80"/>
       <c r="Z44" s="80"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26">
       <c r="A45" s="80"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
@@ -4270,7 +4270,7 @@
       <c r="Y45" s="80"/>
       <c r="Z45" s="80"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26">
       <c r="A46" s="80"/>
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
@@ -4298,7 +4298,7 @@
       <c r="Y46" s="80"/>
       <c r="Z46" s="80"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26">
       <c r="A47" s="80"/>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -4326,7 +4326,7 @@
       <c r="Y47" s="80"/>
       <c r="Z47" s="80"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26">
       <c r="A48" s="80"/>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -4354,7 +4354,7 @@
       <c r="Y48" s="80"/>
       <c r="Z48" s="80"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26">
       <c r="A49" s="80"/>
       <c r="B49" s="80"/>
       <c r="C49" s="80"/>
@@ -4382,7 +4382,7 @@
       <c r="Y49" s="80"/>
       <c r="Z49" s="80"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26">
       <c r="A50" s="80"/>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -4410,7 +4410,7 @@
       <c r="Y50" s="80"/>
       <c r="Z50" s="80"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26">
       <c r="A51" s="80"/>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -4438,7 +4438,7 @@
       <c r="Y51" s="80"/>
       <c r="Z51" s="80"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26">
       <c r="A52" s="80"/>
       <c r="B52" s="80"/>
       <c r="C52" s="80"/>
@@ -4466,7 +4466,7 @@
       <c r="Y52" s="80"/>
       <c r="Z52" s="80"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26">
       <c r="A53" s="80"/>
       <c r="B53" s="80"/>
       <c r="C53" s="80"/>
@@ -4494,7 +4494,7 @@
       <c r="Y53" s="80"/>
       <c r="Z53" s="80"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26">
       <c r="A54" s="80"/>
       <c r="B54" s="80"/>
       <c r="C54" s="80"/>
@@ -4522,7 +4522,7 @@
       <c r="Y54" s="80"/>
       <c r="Z54" s="80"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26">
       <c r="A55" s="80"/>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -4550,7 +4550,7 @@
       <c r="Y55" s="80"/>
       <c r="Z55" s="80"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26">
       <c r="A56" s="80"/>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
@@ -4578,7 +4578,7 @@
       <c r="Y56" s="80"/>
       <c r="Z56" s="80"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26">
       <c r="A57" s="80"/>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
@@ -4606,7 +4606,7 @@
       <c r="Y57" s="80"/>
       <c r="Z57" s="80"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26">
       <c r="A58" s="80"/>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
@@ -4634,7 +4634,7 @@
       <c r="Y58" s="80"/>
       <c r="Z58" s="80"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26">
       <c r="A59" s="80"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
@@ -4662,7 +4662,7 @@
       <c r="Y59" s="80"/>
       <c r="Z59" s="80"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26">
       <c r="A60" s="80"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
@@ -4690,7 +4690,7 @@
       <c r="Y60" s="80"/>
       <c r="Z60" s="80"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26">
       <c r="A61" s="80"/>
       <c r="B61" s="80"/>
       <c r="C61" s="80"/>
@@ -4718,7 +4718,7 @@
       <c r="Y61" s="80"/>
       <c r="Z61" s="80"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26">
       <c r="A62" s="80"/>
       <c r="B62" s="80"/>
       <c r="C62" s="80"/>
@@ -4746,7 +4746,7 @@
       <c r="Y62" s="80"/>
       <c r="Z62" s="80"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26">
       <c r="A63" s="80"/>
       <c r="B63" s="80"/>
       <c r="C63" s="80"/>
@@ -4774,7 +4774,7 @@
       <c r="Y63" s="80"/>
       <c r="Z63" s="80"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26">
       <c r="A64" s="80"/>
       <c r="B64" s="80"/>
       <c r="C64" s="80"/>
@@ -4802,7 +4802,7 @@
       <c r="Y64" s="80"/>
       <c r="Z64" s="80"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26">
       <c r="A65" s="80"/>
       <c r="B65" s="80"/>
       <c r="C65" s="80"/>
@@ -4830,7 +4830,7 @@
       <c r="Y65" s="80"/>
       <c r="Z65" s="80"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26">
       <c r="A66" s="80"/>
       <c r="B66" s="80"/>
       <c r="C66" s="80"/>
@@ -4858,7 +4858,7 @@
       <c r="Y66" s="80"/>
       <c r="Z66" s="80"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26">
       <c r="A67" s="80"/>
       <c r="B67" s="80"/>
       <c r="C67" s="80"/>
@@ -4886,7 +4886,7 @@
       <c r="Y67" s="80"/>
       <c r="Z67" s="80"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26">
       <c r="A68" s="80"/>
       <c r="B68" s="80"/>
       <c r="C68" s="80"/>
@@ -4914,7 +4914,7 @@
       <c r="Y68" s="80"/>
       <c r="Z68" s="80"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26">
       <c r="A69" s="80"/>
       <c r="B69" s="80"/>
       <c r="C69" s="80"/>
@@ -4942,7 +4942,7 @@
       <c r="Y69" s="80"/>
       <c r="Z69" s="80"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26">
       <c r="A70" s="80"/>
       <c r="B70" s="80"/>
       <c r="C70" s="80"/>
@@ -4970,7 +4970,7 @@
       <c r="Y70" s="80"/>
       <c r="Z70" s="80"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26">
       <c r="A71" s="80"/>
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
@@ -4998,7 +4998,7 @@
       <c r="Y71" s="80"/>
       <c r="Z71" s="80"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26">
       <c r="A72" s="80"/>
       <c r="B72" s="80"/>
       <c r="C72" s="80"/>
@@ -5026,7 +5026,7 @@
       <c r="Y72" s="80"/>
       <c r="Z72" s="80"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26">
       <c r="A73" s="80"/>
       <c r="B73" s="80"/>
       <c r="C73" s="80"/>
@@ -5054,7 +5054,7 @@
       <c r="Y73" s="80"/>
       <c r="Z73" s="80"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26">
       <c r="A74" s="80"/>
       <c r="B74" s="80"/>
       <c r="C74" s="80"/>
@@ -5082,7 +5082,7 @@
       <c r="Y74" s="80"/>
       <c r="Z74" s="80"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26">
       <c r="A75" s="80"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -5110,7 +5110,7 @@
       <c r="Y75" s="80"/>
       <c r="Z75" s="80"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26">
       <c r="A76" s="80"/>
       <c r="B76" s="80"/>
       <c r="C76" s="80"/>
@@ -5138,7 +5138,7 @@
       <c r="Y76" s="80"/>
       <c r="Z76" s="80"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26">
       <c r="A77" s="80"/>
       <c r="B77" s="80"/>
       <c r="C77" s="80"/>
@@ -5166,7 +5166,7 @@
       <c r="Y77" s="80"/>
       <c r="Z77" s="80"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26">
       <c r="A78" s="80"/>
       <c r="B78" s="80"/>
       <c r="C78" s="80"/>
@@ -5194,7 +5194,7 @@
       <c r="Y78" s="80"/>
       <c r="Z78" s="80"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26">
       <c r="A79" s="80"/>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -5222,7 +5222,7 @@
       <c r="Y79" s="80"/>
       <c r="Z79" s="80"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26">
       <c r="A80" s="80"/>
       <c r="B80" s="80"/>
       <c r="C80" s="80"/>
@@ -5250,7 +5250,7 @@
       <c r="Y80" s="80"/>
       <c r="Z80" s="80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26">
       <c r="A81" s="80"/>
       <c r="B81" s="80"/>
       <c r="C81" s="80"/>
@@ -5278,7 +5278,7 @@
       <c r="Y81" s="80"/>
       <c r="Z81" s="80"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26">
       <c r="A82" s="80"/>
       <c r="B82" s="80"/>
       <c r="C82" s="80"/>
@@ -5306,7 +5306,7 @@
       <c r="Y82" s="80"/>
       <c r="Z82" s="80"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26">
       <c r="A83" s="80"/>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -5334,7 +5334,7 @@
       <c r="Y83" s="80"/>
       <c r="Z83" s="80"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26">
       <c r="A84" s="80"/>
       <c r="B84" s="80"/>
       <c r="C84" s="80"/>
@@ -5362,7 +5362,7 @@
       <c r="Y84" s="80"/>
       <c r="Z84" s="80"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26">
       <c r="A85" s="80"/>
       <c r="B85" s="80"/>
       <c r="C85" s="80"/>
@@ -5390,7 +5390,7 @@
       <c r="Y85" s="80"/>
       <c r="Z85" s="80"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26">
       <c r="A86" s="80"/>
       <c r="B86" s="80"/>
       <c r="C86" s="80"/>
@@ -5418,7 +5418,7 @@
       <c r="Y86" s="80"/>
       <c r="Z86" s="80"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26">
       <c r="A87" s="80"/>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
@@ -5446,7 +5446,7 @@
       <c r="Y87" s="80"/>
       <c r="Z87" s="80"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26">
       <c r="A88" s="80"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
@@ -5474,7 +5474,7 @@
       <c r="Y88" s="80"/>
       <c r="Z88" s="80"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26">
       <c r="A89" s="80"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
@@ -5502,7 +5502,7 @@
       <c r="Y89" s="80"/>
       <c r="Z89" s="80"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26">
       <c r="A90" s="80"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
@@ -5530,7 +5530,7 @@
       <c r="Y90" s="80"/>
       <c r="Z90" s="80"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26">
       <c r="A91" s="80"/>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -5558,7 +5558,7 @@
       <c r="Y91" s="80"/>
       <c r="Z91" s="80"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26">
       <c r="A92" s="80"/>
       <c r="B92" s="80"/>
       <c r="C92" s="80"/>
@@ -5586,7 +5586,7 @@
       <c r="Y92" s="80"/>
       <c r="Z92" s="80"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26">
       <c r="A93" s="80"/>
       <c r="B93" s="80"/>
       <c r="C93" s="80"/>
@@ -5614,7 +5614,7 @@
       <c r="Y93" s="80"/>
       <c r="Z93" s="80"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26">
       <c r="A94" s="80"/>
       <c r="B94" s="80"/>
       <c r="C94" s="80"/>
@@ -5642,7 +5642,7 @@
       <c r="Y94" s="80"/>
       <c r="Z94" s="80"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26">
       <c r="A95" s="80"/>
       <c r="B95" s="80"/>
       <c r="C95" s="80"/>
@@ -5670,7 +5670,7 @@
       <c r="Y95" s="80"/>
       <c r="Z95" s="80"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26">
       <c r="A96" s="80"/>
       <c r="B96" s="80"/>
       <c r="C96" s="80"/>
@@ -5698,7 +5698,7 @@
       <c r="Y96" s="80"/>
       <c r="Z96" s="80"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26">
       <c r="A97" s="80"/>
       <c r="B97" s="80"/>
       <c r="C97" s="80"/>
@@ -5726,7 +5726,7 @@
       <c r="Y97" s="80"/>
       <c r="Z97" s="80"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26">
       <c r="A98" s="80"/>
       <c r="B98" s="80"/>
       <c r="C98" s="80"/>
@@ -5754,7 +5754,7 @@
       <c r="Y98" s="80"/>
       <c r="Z98" s="80"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26">
       <c r="A99" s="80"/>
       <c r="B99" s="80"/>
       <c r="C99" s="80"/>
@@ -5812,26 +5812,26 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="16.3046875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="60.69140625" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" customWidth="1"/>
+    <col min="3" max="3" width="60.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.4609375" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" customWidth="1"/>
+    <col min="12" max="12" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.5">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5841,7 +5841,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5851,7 +5851,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.5">
       <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="21"/>
       <c r="B7" s="48" t="s">
         <v>61</v>
@@ -5937,7 +5937,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="48" t="s">
         <v>62</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21"/>
       <c r="B9" s="48" t="s">
         <v>63</v>
@@ -5968,7 +5968,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="21"/>
       <c r="B10" s="48" t="s">
         <v>65</v>
@@ -5984,7 +5984,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21"/>
       <c r="B11" s="48" t="s">
         <v>66</v>
@@ -6000,7 +6000,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="21"/>
       <c r="B12" s="48" t="s">
         <v>380</v>
@@ -6016,7 +6016,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="48" t="s">
         <v>67</v>
@@ -6032,7 +6032,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="21"/>
       <c r="B14" s="48" t="s">
         <v>69</v>
@@ -6048,7 +6048,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="21"/>
       <c r="B15" s="48" t="s">
         <v>39</v>
@@ -6068,7 +6068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="B16" s="48" t="s">
         <v>120</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="B17" s="48" t="s">
         <v>388</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="28"/>
       <c r="B18" s="60" t="s">
         <v>72</v>
@@ -6110,7 +6110,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="21" t="s">
         <v>73</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="21"/>
       <c r="B20" s="21" t="s">
         <v>189</v>
@@ -6145,7 +6145,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
         <v>191</v>
@@ -6162,7 +6162,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="B22" s="21" t="s">
         <v>353</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="B23" s="21" t="s">
         <v>76</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
         <v>82</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>84</v>
@@ -6254,7 +6254,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="B29" s="29" t="s">
         <v>90</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.5">
       <c r="B30" s="29" t="s">
         <v>92</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.5">
       <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="B32" s="21" t="s">
         <v>96</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="13" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>98</v>
@@ -6348,7 +6348,7 @@
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6357,7 +6357,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="E35" s="21"/>
@@ -6365,13 +6365,13 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
-    <row r="38" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="21">
       <c r="B38" s="101" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="101"/>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="B39" s="25" t="s">
         <v>56</v>
       </c>
@@ -6379,19 +6379,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="13.5" thickBot="1">
       <c r="B40" s="49" t="s">
         <v>208</v>
       </c>
       <c r="C40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="13">
       <c r="B41" s="51" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="51"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="B42" s="52" t="s">
         <v>210</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="B43" s="52" t="s">
         <v>212</v>
       </c>
@@ -6407,13 +6407,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="13">
       <c r="B44" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="51"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="B45" s="52" t="s">
         <v>214</v>
       </c>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="B46" s="52" t="s">
         <v>216</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="B47" s="52" t="s">
         <v>218</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="B48" s="52" t="s">
         <v>220</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" s="52" t="s">
         <v>222</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" s="52" t="s">
         <v>224</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" s="52" t="s">
         <v>226</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" s="52" t="s">
         <v>228</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" s="52" t="s">
         <v>230</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54" s="52" t="s">
         <v>232</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" s="52" t="s">
         <v>234</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" s="52" t="s">
         <v>236</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" s="52" t="s">
         <v>238</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" s="52" t="s">
         <v>240</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" s="52" t="s">
         <v>242</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" s="52" t="s">
         <v>355</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" s="52" t="s">
         <v>356</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" s="52" t="s">
         <v>246</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63" s="52" t="s">
         <v>248</v>
       </c>
@@ -6567,13 +6567,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" ht="13">
       <c r="B64" s="51" t="s">
         <v>250</v>
       </c>
       <c r="C64" s="51"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="B65" s="52" t="s">
         <v>251</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="B66" s="52" t="s">
         <v>327</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3">
       <c r="B67" s="52" t="s">
         <v>313</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3">
       <c r="B68" s="52" t="s">
         <v>314</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3">
       <c r="B69" s="52" t="s">
         <v>315</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3">
       <c r="B70" s="52" t="s">
         <v>316</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3">
       <c r="B71" s="52" t="s">
         <v>317</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3">
       <c r="B72" s="52" t="s">
         <v>318</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3">
       <c r="B73" s="52" t="s">
         <v>319</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3">
       <c r="B74" s="52" t="s">
         <v>320</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3">
       <c r="B75" s="52" t="s">
         <v>321</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3">
       <c r="B76" s="52" t="s">
         <v>322</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3">
       <c r="B77" s="52" t="s">
         <v>323</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3">
       <c r="B78" s="52" t="s">
         <v>324</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3">
       <c r="B79" s="52" t="s">
         <v>357</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3">
       <c r="B80" s="52" t="s">
         <v>358</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3">
       <c r="B81" s="52" t="s">
         <v>359</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3">
       <c r="B82" s="52" t="s">
         <v>325</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3">
       <c r="B83" s="52" t="s">
         <v>326</v>
       </c>
@@ -6725,13 +6725,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" ht="13">
       <c r="B84" s="51" t="s">
         <v>271</v>
       </c>
       <c r="C84" s="51"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3">
       <c r="B85" s="52" t="s">
         <v>272</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3">
       <c r="B86" s="52" t="s">
         <v>274</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3">
       <c r="B87" s="52" t="s">
         <v>276</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3">
       <c r="B88" s="52" t="s">
         <v>278</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3">
       <c r="B89" s="52" t="s">
         <v>280</v>
       </c>
@@ -6771,13 +6771,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" ht="13">
       <c r="B90" s="51" t="s">
         <v>282</v>
       </c>
       <c r="C90" s="51"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3">
       <c r="B91" s="52" t="s">
         <v>360</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3">
       <c r="B92" s="52" t="s">
         <v>361</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3">
       <c r="B93" s="52" t="s">
         <v>285</v>
       </c>
@@ -6801,19 +6801,19 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" ht="13">
       <c r="B94" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C94" s="54"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" ht="13">
       <c r="B95" s="51" t="s">
         <v>287</v>
       </c>
       <c r="C95" s="51"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3">
       <c r="B96" s="52" t="s">
         <v>288</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="52" t="s">
         <v>290</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="52" t="s">
         <v>292</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="52" t="s">
         <v>382</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="52" t="s">
         <v>295</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="52" t="s">
         <v>297</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="52" t="s">
         <v>299</v>
       </c>
@@ -6869,13 +6869,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" ht="13">
       <c r="B103" s="51" t="s">
         <v>329</v>
       </c>
       <c r="C103" s="51"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" s="52" t="s">
         <v>346</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" s="52" t="s">
         <v>347</v>
       </c>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="J105" s="21"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" s="52" t="s">
         <v>348</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="J106" s="21"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" s="52" t="s">
         <v>349</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="J107" s="21"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" s="52" t="s">
         <v>350</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="J108" s="21"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" s="52" t="s">
         <v>351</v>
       </c>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" s="52" t="s">
         <v>352</v>
       </c>
@@ -6937,14 +6937,14 @@
       </c>
       <c r="J110" s="21"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" ht="13">
       <c r="B111" s="51" t="s">
         <v>301</v>
       </c>
       <c r="C111" s="51"/>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" s="52" t="s">
         <v>334</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="J112" s="21"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" s="52" t="s">
         <v>335</v>
       </c>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" s="52" t="s">
         <v>336</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="J114" s="21"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" s="52" t="s">
         <v>337</v>
       </c>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="J115" s="21"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" s="52" t="s">
         <v>338</v>
       </c>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="J116" s="21"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" s="52" t="s">
         <v>339</v>
       </c>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="J117" s="21"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" s="52" t="s">
         <v>340</v>
       </c>
@@ -7007,14 +7007,14 @@
       </c>
       <c r="J118" s="21"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" ht="13">
       <c r="B119" s="51" t="s">
         <v>309</v>
       </c>
       <c r="C119" s="51"/>
       <c r="J119" s="21"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" s="52" t="s">
         <v>341</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" s="52" t="s">
         <v>362</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" s="52" t="s">
         <v>342</v>
       </c>
@@ -7038,19 +7038,19 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" ht="13">
       <c r="B123" s="53" t="s">
         <v>364</v>
       </c>
       <c r="C123" s="54"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" ht="13">
       <c r="B124" s="51" t="s">
         <v>368</v>
       </c>
       <c r="C124" s="51"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" s="52" t="s">
         <v>377</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" s="52" t="s">
         <v>375</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" s="52" t="s">
         <v>376</v>
       </c>
@@ -7074,13 +7074,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" ht="13">
       <c r="B128" s="51" t="s">
         <v>371</v>
       </c>
       <c r="C128" s="51"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3">
       <c r="B129" t="s">
         <v>378</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3">
       <c r="B130" s="28" t="s">
         <v>379</v>
       </c>
@@ -7110,35 +7110,35 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" customWidth="1"/>
-    <col min="3" max="3" width="49.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53515625" customWidth="1"/>
-    <col min="6" max="8" width="13.4609375" customWidth="1"/>
-    <col min="9" max="11" width="18.07421875" customWidth="1"/>
-    <col min="12" max="14" width="19.84375" customWidth="1"/>
-    <col min="16" max="16" width="16.3046875" customWidth="1"/>
-    <col min="17" max="17" width="12.3046875" customWidth="1"/>
-    <col min="18" max="18" width="15.3046875" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="11" width="18.08984375" customWidth="1"/>
+    <col min="12" max="14" width="19.81640625" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.07421875" customWidth="1"/>
-    <col min="21" max="21" width="14.53515625" customWidth="1"/>
-    <col min="22" max="22" width="18.23046875" customWidth="1"/>
-    <col min="24" max="24" width="11.84375" customWidth="1"/>
-    <col min="25" max="25" width="10.84375" customWidth="1"/>
-    <col min="34" max="34" width="21.69140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.3046875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.69140625" customWidth="1"/>
+    <col min="20" max="20" width="14.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" customWidth="1"/>
+    <col min="22" max="22" width="18.26953125" customWidth="1"/>
+    <col min="24" max="24" width="11.81640625" customWidth="1"/>
+    <col min="25" max="25" width="10.81640625" customWidth="1"/>
+    <col min="34" max="34" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="13">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="13">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="29" customHeight="1" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="15" customHeight="1">
       <c r="B6" s="26" t="s">
         <v>112</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:13" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" ht="14.5">
       <c r="B9" s="26" t="s">
         <v>113</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="13">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="I12" s="9"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="I13" s="9"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="I14" s="9"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="14.5">
       <c r="B29" s="26" t="s">
         <v>114</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9">
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9">
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9">
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9">
       <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9">
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9">
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9">
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="14.5">
       <c r="B49" s="26" t="s">
         <v>115</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14.5">
       <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="14.5">
       <c r="B59" s="26" t="s">
         <v>117</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="B60" s="2" t="s">
         <v>28</v>
       </c>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="B63" s="2" t="s">
         <v>28</v>
       </c>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10">
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:10" ht="14.5">
       <c r="B67" s="26" t="s">
         <v>328</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" s="2" t="s">
         <v>28</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" s="2" t="s">
         <v>28</v>
       </c>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" s="2" t="s">
         <v>28</v>
       </c>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:10" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" ht="14.5">
       <c r="B75" s="26" t="s">
         <v>118</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" s="2" t="s">
         <v>28</v>
       </c>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" s="2" t="s">
         <v>28</v>
       </c>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" s="2" t="s">
         <v>28</v>
       </c>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" s="2" t="s">
         <v>28</v>
       </c>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16">
       <c r="B81" s="2" t="s">
         <v>28</v>
       </c>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16">
       <c r="B82" s="2" t="s">
         <v>28</v>
       </c>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:16" ht="14.5">
       <c r="B83" s="26" t="s">
         <v>119</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16">
       <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16">
       <c r="B85" s="2" t="s">
         <v>28</v>
       </c>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16">
       <c r="B86" s="2" t="s">
         <v>28</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:16" ht="14.5">
       <c r="B87" s="26" t="s">
         <v>363</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="J87" s="26"/>
       <c r="P87" s="21"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16">
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="P88" s="21"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16">
       <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="P89" s="21"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16">
       <c r="B90" s="2" t="s">
         <v>28</v>
       </c>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="P90" s="21"/>
     </row>
-    <row r="91" spans="2:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:16" ht="14.5">
       <c r="B91" s="26" t="s">
         <v>374</v>
       </c>
@@ -8863,7 +8863,7 @@
       <c r="J91" s="26"/>
       <c r="P91" s="21"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16">
       <c r="B92" s="56" t="s">
         <v>28</v>
       </c>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="P92" s="21"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16">
       <c r="B93" s="58" t="s">
         <v>28</v>
       </c>
@@ -8908,13 +8908,16 @@
       <c r="K93" s="46"/>
       <c r="P93" s="21"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16">
+      <c r="M94">
+        <v>2</v>
+      </c>
       <c r="P94" s="21"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16">
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" ht="13">
       <c r="D96" s="6" t="s">
         <v>0</v>
       </c>
@@ -8923,7 +8926,7 @@
       <c r="J96" s="7"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:24" ht="13">
       <c r="B97" s="10" t="s">
         <v>1</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="21" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:24" ht="20.5">
       <c r="B98" s="35" t="s">
         <v>31</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="26.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:24" ht="26.5" thickBot="1">
       <c r="B99" s="34" t="s">
         <v>35</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:24" ht="14.5">
       <c r="B100" s="26" t="s">
         <v>112</v>
       </c>
@@ -9155,7 +9158,7 @@
       <c r="W100" s="26"/>
       <c r="X100" s="26"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:24">
       <c r="B101" t="str">
         <f>D7</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -9233,7 +9236,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:24">
       <c r="B102" t="str">
         <f>D8</f>
         <v>T-MOT-EV_ELC01</v>
@@ -9311,7 +9314,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:24" ht="14.5">
       <c r="B103" s="26" t="s">
         <v>113</v>
       </c>
@@ -9338,7 +9341,7 @@
       <c r="W103" s="26"/>
       <c r="X103" s="26"/>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:24">
       <c r="B104" t="str">
         <f t="shared" ref="B104:B122" si="2">D10</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -9419,7 +9422,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:24">
       <c r="B105" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DST21</v>
@@ -9500,7 +9503,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:24">
       <c r="B106" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DF21</v>
@@ -9578,7 +9581,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:24">
       <c r="B107" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_NGB21</v>
@@ -9592,7 +9595,7 @@
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
       <c r="E107" s="97">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="F107" s="46">
         <v>0.41317922700087906</v>
@@ -9656,7 +9659,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:24">
       <c r="B108" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_E8521</v>
@@ -9670,7 +9673,7 @@
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
       <c r="E108" s="97">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="F108" s="46">
         <v>0.38903594158617399</v>
@@ -9734,7 +9737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:24">
       <c r="B109" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_B10021</v>
@@ -9812,7 +9815,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:24">
       <c r="B110" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_GSL21</v>
@@ -9890,7 +9893,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:24">
       <c r="B111" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_DST21</v>
@@ -9968,7 +9971,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:24">
       <c r="B112" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -10046,7 +10049,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:24">
       <c r="B113" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -10124,7 +10127,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:24">
       <c r="B114" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -10202,7 +10205,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:24">
       <c r="B115" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_DST21</v>
@@ -10280,7 +10283,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:24">
       <c r="B116" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV20_DST21</v>
@@ -10358,7 +10361,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:24">
       <c r="B117" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV40_DST21</v>
@@ -10436,7 +10439,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:24">
       <c r="B118" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV100_ELC21</v>
@@ -10479,13 +10482,13 @@
         <v>24.646000000000001</v>
       </c>
       <c r="N118" s="46">
-        <v>1.6485500000000002</v>
+        <v>0.82427499999999998</v>
       </c>
       <c r="O118" s="46">
-        <v>1.3790500000000001</v>
+        <v>0.68952500000000005</v>
       </c>
       <c r="P118" s="46">
-        <v>1.2323000000000002</v>
+        <v>0.61615000000000009</v>
       </c>
       <c r="Q118" s="46">
         <v>16.7</v>
@@ -10514,7 +10517,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:24">
       <c r="B119" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV150_ELC21</v>
@@ -10557,13 +10560,13 @@
         <v>24.646000000000001</v>
       </c>
       <c r="N119" s="46">
-        <v>1.6485500000000002</v>
+        <v>0.82427500000000009</v>
       </c>
       <c r="O119" s="46">
-        <v>1.3790500000000001</v>
+        <v>0.68952500000000005</v>
       </c>
       <c r="P119" s="46">
-        <v>1.2323000000000002</v>
+        <v>0.61615000000000009</v>
       </c>
       <c r="Q119" s="46">
         <v>16.7</v>
@@ -10592,7 +10595,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:24">
       <c r="B120" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-BEV250_ELC21</v>
@@ -10635,13 +10638,13 @@
         <v>24.646000000000001</v>
       </c>
       <c r="N120" s="46">
-        <v>1.6485500000000002</v>
+        <v>0.82427500000000009</v>
       </c>
       <c r="O120" s="46">
-        <v>1.3790500000000001</v>
+        <v>0.68952500000000005</v>
       </c>
       <c r="P120" s="46">
-        <v>1.2323000000000002</v>
+        <v>0.61615000000000009</v>
       </c>
       <c r="Q120" s="46">
         <v>16.7</v>
@@ -10670,7 +10673,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:24">
       <c r="B121" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_HYD21</v>
@@ -10748,7 +10751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:24">
       <c r="B122" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-FCV_HYD21</v>
@@ -10826,7 +10829,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:24" ht="14.5">
       <c r="B123" s="26" t="s">
         <v>114</v>
       </c>
@@ -10853,7 +10856,7 @@
       <c r="W123" s="26"/>
       <c r="X123" s="26"/>
     </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24">
       <c r="B124" t="str">
         <f t="shared" ref="B124:B142" si="7">D30</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -10931,7 +10934,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24">
       <c r="B125" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_DST31</v>
@@ -11010,7 +11013,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24">
       <c r="B126" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_DF31</v>
@@ -11089,7 +11092,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24">
       <c r="B127" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_NGB31</v>
@@ -11103,7 +11106,7 @@
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
       <c r="E127">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="F127" s="46">
         <v>0.41317922700087906</v>
@@ -11168,7 +11171,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24">
       <c r="B128" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_E8531</v>
@@ -11182,7 +11185,7 @@
         <v>TRAPS,TRAPM,TRAPL</v>
       </c>
       <c r="E128">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="F128" s="46">
         <v>0.38903594158617399</v>
@@ -11247,7 +11250,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24">
       <c r="B129" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_B10031</v>
@@ -11326,7 +11329,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:24">
       <c r="B130" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-HEV_GSL31</v>
@@ -11405,7 +11408,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:24">
       <c r="B131" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-HEV_DST31</v>
@@ -11484,7 +11487,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:24">
       <c r="B132" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -11563,7 +11566,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:24">
       <c r="B133" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -11642,7 +11645,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:24">
       <c r="B134" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -11721,7 +11724,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:24">
       <c r="B135" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV10_DST31</v>
@@ -11800,7 +11803,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:24">
       <c r="B136" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV20_DST31</v>
@@ -11879,7 +11882,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:24">
       <c r="B137" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-PHEV40_DST31</v>
@@ -11958,7 +11961,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:24">
       <c r="B138" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV100_ELC31</v>
@@ -12000,14 +12003,14 @@
       <c r="M138" s="46">
         <v>24.646000000000001</v>
       </c>
-      <c r="N138" s="46">
-        <v>1.6485500000000002</v>
-      </c>
-      <c r="O138" s="46">
-        <v>1.3790500000000001</v>
-      </c>
-      <c r="P138" s="46">
-        <v>1.2323000000000002</v>
+      <c r="N138">
+        <v>0.82427500000000009</v>
+      </c>
+      <c r="O138">
+        <v>0.68952500000000005</v>
+      </c>
+      <c r="P138">
+        <v>0.61615000000000009</v>
       </c>
       <c r="Q138" s="46">
         <f t="shared" si="10"/>
@@ -12037,7 +12040,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:24">
       <c r="B139" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV150_ELC31</v>
@@ -12079,14 +12082,14 @@
       <c r="M139" s="46">
         <v>24.646000000000001</v>
       </c>
-      <c r="N139" s="46">
-        <v>1.6485500000000002</v>
-      </c>
-      <c r="O139" s="46">
-        <v>1.3790500000000001</v>
-      </c>
-      <c r="P139" s="46">
-        <v>1.2323000000000002</v>
+      <c r="N139">
+        <v>0.82427500000000009</v>
+      </c>
+      <c r="O139">
+        <v>0.68952500000000005</v>
+      </c>
+      <c r="P139">
+        <v>0.61615000000000009</v>
       </c>
       <c r="Q139" s="46">
         <f t="shared" si="10"/>
@@ -12116,7 +12119,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:24">
       <c r="B140" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-BEV250_ELC31</v>
@@ -12158,14 +12161,14 @@
       <c r="M140" s="46">
         <v>24.646000000000001</v>
       </c>
-      <c r="N140" s="46">
-        <v>1.6485500000000002</v>
-      </c>
-      <c r="O140" s="46">
-        <v>1.3790500000000001</v>
-      </c>
-      <c r="P140" s="46">
-        <v>1.2323000000000002</v>
+      <c r="N140">
+        <v>0.82427500000000009</v>
+      </c>
+      <c r="O140">
+        <v>0.68952500000000005</v>
+      </c>
+      <c r="P140">
+        <v>0.61615000000000009</v>
       </c>
       <c r="Q140" s="46">
         <f t="shared" si="10"/>
@@ -12195,7 +12198,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:24">
       <c r="B141" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-ICE_HYD31</v>
@@ -12274,7 +12277,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:24">
       <c r="B142" t="str">
         <f t="shared" si="7"/>
         <v>T-TAX-FCV_HYD31</v>
@@ -12353,7 +12356,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:24" ht="14.5">
       <c r="B143" s="26" t="s">
         <v>115</v>
       </c>
@@ -12380,7 +12383,7 @@
       <c r="W143" s="26"/>
       <c r="X143" s="26"/>
     </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:24">
       <c r="B144" t="str">
         <f>D50</f>
         <v>T-BUS-ICE_DST41</v>
@@ -12458,7 +12461,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:24">
       <c r="B145" t="str">
         <f>D51</f>
         <v>T-BUS-ICE_B10041</v>
@@ -12536,7 +12539,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:24">
       <c r="B146" t="str">
         <f>D52</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -12614,7 +12617,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:24">
       <c r="B147" t="str">
         <f>D53</f>
         <v>T-BUS-BEV_ELC41</v>
@@ -12657,13 +12660,16 @@
         <v>130</v>
       </c>
       <c r="N147" s="46">
-        <v>19.860949999999999</v>
+        <f>+N144*0.8</f>
+        <v>4.3983600000000003</v>
       </c>
       <c r="O147" s="46">
-        <v>9</v>
+        <f>+O144*0.8</f>
+        <v>4.5426000000000002</v>
       </c>
       <c r="P147" s="46">
-        <v>6.5</v>
+        <f>+P144*0.8</f>
+        <v>4.5426000000000002</v>
       </c>
       <c r="Q147" s="46">
         <v>36.094999999999999</v>
@@ -12692,7 +12698,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:24">
       <c r="B148" t="str">
         <f>D54</f>
         <v>T-BUS-FCV_HYD41</v>
@@ -12770,7 +12776,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:24" ht="14.5">
       <c r="B149" s="26" t="s">
         <v>116</v>
       </c>
@@ -12797,7 +12803,7 @@
       <c r="W149" s="26"/>
       <c r="X149" s="26"/>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:24">
       <c r="B150" t="str">
         <f>D56</f>
         <v>T-LPT-BEV_ELC51</v>
@@ -12875,7 +12881,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:24">
       <c r="B151" t="str">
         <f>D57</f>
         <v>T-HPT-BEV_ELC51</v>
@@ -12953,7 +12959,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:24">
       <c r="B152" t="str">
         <f>D58</f>
         <v>T-HPT-ICE_DST51</v>
@@ -13031,7 +13037,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:24" ht="14.5">
       <c r="B153" s="26" t="s">
         <v>117</v>
       </c>
@@ -13058,7 +13064,7 @@
       <c r="W153" s="26"/>
       <c r="X153" s="26"/>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:24">
       <c r="B154" t="str">
         <f t="shared" ref="B154:B160" si="16">D60</f>
         <v>T-LGT-ICE_DST61</v>
@@ -13136,7 +13142,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:24">
       <c r="B155" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-HEV_DST61</v>
@@ -13214,7 +13220,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:24">
       <c r="B156" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-PHEV_DST61</v>
@@ -13292,7 +13298,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:24">
       <c r="B157" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-ICE_NGB61</v>
@@ -13370,7 +13376,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:24">
       <c r="B158" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-PHEV_NGB61</v>
@@ -13448,7 +13454,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:24">
       <c r="B159" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-FCV_HYD61</v>
@@ -13526,7 +13532,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:24">
       <c r="B160" t="str">
         <f t="shared" si="16"/>
         <v>T-LGT-BEV_ELC61</v>
@@ -13569,13 +13575,16 @@
         <v>25.497</v>
       </c>
       <c r="N160" s="46">
-        <v>0.70836727547576028</v>
+        <f>+N154*0.8</f>
+        <v>0.40387691305176299</v>
       </c>
       <c r="O160" s="46">
-        <v>0.66410793134846258</v>
+        <f>+O154*0.8</f>
+        <v>0.41404139360651215</v>
       </c>
       <c r="P160" s="46">
-        <v>0.57558924309386739</v>
+        <f>+P154*0.8</f>
+        <v>0.41404139360651215</v>
       </c>
       <c r="Q160" s="46">
         <v>20.794499999999999</v>
@@ -13604,7 +13613,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:24" ht="14.5">
       <c r="B161" s="26" t="s">
         <v>328</v>
       </c>
@@ -13631,7 +13640,7 @@
       <c r="W161" s="26"/>
       <c r="X161" s="26"/>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:24">
       <c r="B162" t="str">
         <f t="shared" ref="B162:B168" si="21">D68</f>
         <v>T-MGT-ICE_DST71</v>
@@ -13717,7 +13726,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:24">
       <c r="B163" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_DST71</v>
@@ -13804,7 +13813,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:24">
       <c r="B164" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-FCV_HYD71</v>
@@ -13890,7 +13899,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:24">
       <c r="B165" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_NGB71</v>
@@ -13977,7 +13986,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:24">
       <c r="B166" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_NGB71</v>
@@ -14064,7 +14073,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:24">
       <c r="B167" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_LNG71</v>
@@ -14151,7 +14160,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:24">
       <c r="B168" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-BEV_ELC71</v>
@@ -14198,8 +14207,8 @@
         <v>116.17</v>
       </c>
       <c r="N168" s="46">
-        <f t="shared" si="25"/>
-        <v>3.5721072259038325</v>
+        <f>+N162*0.8</f>
+        <v>1.6925633979369896</v>
       </c>
       <c r="O168" s="46">
         <f t="shared" si="25"/>
@@ -14238,7 +14247,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="169" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:24" ht="14.5">
       <c r="B169" s="26" t="s">
         <v>118</v>
       </c>
@@ -14265,7 +14274,7 @@
       <c r="W169" s="26"/>
       <c r="X169" s="26"/>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:24">
       <c r="B170" t="str">
         <f t="shared" ref="B170:B176" si="32">D76</f>
         <v>T-HGT-ICE_DST81</v>
@@ -14343,7 +14352,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:24">
       <c r="B171" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_DST81</v>
@@ -14422,7 +14431,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:24">
       <c r="B172" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-FCV_HYD81</v>
@@ -14501,7 +14510,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:24">
       <c r="B173" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_NGB81</v>
@@ -14580,7 +14589,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:24">
       <c r="B174" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_NGB81</v>
@@ -14659,7 +14668,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:24">
       <c r="B175" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_LNG81</v>
@@ -14738,7 +14747,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:24">
       <c r="B176" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-BEV_ELC81</v>
@@ -14817,7 +14826,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:24" ht="14.5">
       <c r="B177" s="26" t="s">
         <v>119</v>
       </c>
@@ -14844,7 +14853,7 @@
       <c r="W177" s="26"/>
       <c r="X177" s="26"/>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:24">
       <c r="B178" t="str">
         <f>D84</f>
         <v>T-GTR-ICE_DST91</v>
@@ -14922,7 +14931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:24">
       <c r="B179" t="str">
         <f>D85</f>
         <v>T-GTR-BEV_ELC91</v>
@@ -15000,7 +15009,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:24">
       <c r="B180" t="str">
         <f>D86</f>
         <v>T-GTR-FCV_HYD91</v>
@@ -15078,7 +15087,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:24" ht="14.5">
       <c r="B181" s="26" t="s">
         <v>363</v>
       </c>
@@ -15105,7 +15114,7 @@
       <c r="W181" s="26"/>
       <c r="X181" s="26"/>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:24">
       <c r="B182" t="str">
         <f>D88</f>
         <v>T-TUR_NEW</v>
@@ -15135,7 +15144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:24">
       <c r="B183" t="str">
         <f t="shared" ref="B183:B184" si="42">D89</f>
         <v>T-NAV_NEW</v>
@@ -15165,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:24">
       <c r="B184" t="str">
         <f t="shared" si="42"/>
         <v>T-OTH_NEW</v>
@@ -15195,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:24" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:24" ht="14.5">
       <c r="B185" s="26" t="s">
         <v>374</v>
       </c>
@@ -15222,7 +15231,7 @@
       <c r="W185" s="26"/>
       <c r="X185" s="26"/>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:24">
       <c r="B186" t="str">
         <f>Commodities!B129</f>
         <v>T-AVI_DOM_NEW</v>
@@ -15252,7 +15261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:24">
       <c r="B187" s="28" t="str">
         <f>Commodities!B130</f>
         <v>T-AVI_INT_NEW</v>
@@ -15296,10 +15305,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:24">
       <c r="R190" s="46"/>
     </row>
-    <row r="193" spans="2:9" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:9" ht="14.5">
       <c r="D193" s="77" t="s">
         <v>0</v>
       </c>
@@ -15308,7 +15317,7 @@
       <c r="H193" s="75"/>
       <c r="I193" s="75"/>
     </row>
-    <row r="194" spans="2:9" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" ht="14.5">
       <c r="B194" s="23" t="s">
         <v>1</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9">
       <c r="B195" s="61" t="str">
         <f>B101</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -15356,7 +15365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9">
       <c r="B196" s="64" t="str">
         <f>B195</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -15381,7 +15390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9">
       <c r="B197" s="69" t="str">
         <f>B104</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -15406,7 +15415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9">
       <c r="B198" s="69" t="str">
         <f>B197</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -15431,7 +15440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9">
       <c r="B199" s="69" t="str">
         <f>B105</f>
         <v>T-CAR-ICE_DST21</v>
@@ -15456,7 +15465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9">
       <c r="B200" s="69" t="str">
         <f>B199</f>
         <v>T-CAR-ICE_DST21</v>
@@ -15481,7 +15490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9">
       <c r="B201" s="69" t="str">
         <f>B106</f>
         <v>T-CAR-ICE_DF21</v>
@@ -15506,7 +15515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9">
       <c r="B202" s="69" t="str">
         <f>B201</f>
         <v>T-CAR-ICE_DF21</v>
@@ -15531,7 +15540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9">
       <c r="B203" s="69" t="str">
         <f>B107</f>
         <v>T-CAR-ICE_NGB21</v>
@@ -15556,7 +15565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9">
       <c r="B204" s="69" t="str">
         <f>B203</f>
         <v>T-CAR-ICE_NGB21</v>
@@ -15581,7 +15590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9">
       <c r="B205" s="69" t="str">
         <f>TRA!B108</f>
         <v>T-CAR-ICE_E8521</v>
@@ -15606,7 +15615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9">
       <c r="B206" s="69" t="str">
         <f>B205</f>
         <v>T-CAR-ICE_E8521</v>
@@ -15631,7 +15640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9">
       <c r="B207" s="69" t="str">
         <f>B110</f>
         <v>T-CAR-HEV_GSL21</v>
@@ -15656,7 +15665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9" ht="15" customHeight="1">
       <c r="B208" s="69" t="str">
         <f>B207</f>
         <v>T-CAR-HEV_GSL21</v>
@@ -15681,7 +15690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8">
       <c r="B209" s="69" t="str">
         <f>B111</f>
         <v>T-CAR-HEV_DST21</v>
@@ -15706,7 +15715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8">
       <c r="B210" s="69" t="str">
         <f>B209</f>
         <v>T-CAR-HEV_DST21</v>
@@ -15731,7 +15740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8">
       <c r="B211" s="69" t="str">
         <f>B112</f>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -15756,7 +15765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8">
       <c r="B212" s="69" t="str">
         <f>B211</f>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -15781,7 +15790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8">
       <c r="B213" s="69" t="str">
         <f>B113</f>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -15806,7 +15815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8">
       <c r="B214" s="69" t="str">
         <f>B213</f>
         <v>T-CAR-PHEV20_GSL21</v>
@@ -15831,7 +15840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8">
       <c r="B215" s="69" t="str">
         <f>B114</f>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -15856,7 +15865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:8">
       <c r="B216" s="69" t="str">
         <f>B215</f>
         <v>T-CAR-PHEV40_GSL21</v>
@@ -15881,7 +15890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8">
       <c r="B217" s="69" t="str">
         <f>B115</f>
         <v>T-CAR-PHEV10_DST21</v>
@@ -15905,7 +15914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8">
       <c r="B218" s="69" t="str">
         <f>B217</f>
         <v>T-CAR-PHEV10_DST21</v>
@@ -15929,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8">
       <c r="B219" s="69" t="str">
         <f>B116</f>
         <v>T-CAR-PHEV20_DST21</v>
@@ -15954,7 +15963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8">
       <c r="B220" s="69" t="str">
         <f>B219</f>
         <v>T-CAR-PHEV20_DST21</v>
@@ -15979,7 +15988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8">
       <c r="B221" s="69" t="str">
         <f>B117</f>
         <v>T-CAR-PHEV40_DST21</v>
@@ -16004,7 +16013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8">
       <c r="B222" s="69" t="str">
         <f>B221</f>
         <v>T-CAR-PHEV40_DST21</v>
@@ -16029,7 +16038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:8">
       <c r="B223" s="64" t="str">
         <f>B124</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -16059,7 +16068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8">
       <c r="B224" s="64" t="str">
         <f>B223</f>
         <v>T-TAX-ICE_GSL31</v>
@@ -16089,7 +16098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8">
       <c r="B225" s="64" t="str">
         <f>B125</f>
         <v>T-TAX-ICE_DST31</v>
@@ -16119,7 +16128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8">
       <c r="B226" s="64" t="str">
         <f>B225</f>
         <v>T-TAX-ICE_DST31</v>
@@ -16149,7 +16158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8">
       <c r="B227" s="64" t="str">
         <f>B126</f>
         <v>T-TAX-ICE_DF31</v>
@@ -16179,7 +16188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:8">
       <c r="B228" s="64" t="str">
         <f>B227</f>
         <v>T-TAX-ICE_DF31</v>
@@ -16209,7 +16218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:8">
       <c r="B229" s="64" t="str">
         <f>B127</f>
         <v>T-TAX-ICE_NGB31</v>
@@ -16239,7 +16248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8">
       <c r="B230" s="64" t="str">
         <f>B229</f>
         <v>T-TAX-ICE_NGB31</v>
@@ -16269,7 +16278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:8">
       <c r="B231" s="64" t="str">
         <f>B128</f>
         <v>T-TAX-ICE_E8531</v>
@@ -16299,7 +16308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8">
       <c r="B232" s="64" t="str">
         <f>B231</f>
         <v>T-TAX-ICE_E8531</v>
@@ -16329,7 +16338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8">
       <c r="B233" s="64" t="str">
         <f>B130</f>
         <v>T-TAX-HEV_GSL31</v>
@@ -16359,7 +16368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8">
       <c r="B234" s="64" t="str">
         <f>B233</f>
         <v>T-TAX-HEV_GSL31</v>
@@ -16389,7 +16398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8">
       <c r="B235" s="64" t="str">
         <f>B131</f>
         <v>T-TAX-HEV_DST31</v>
@@ -16419,7 +16428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8">
       <c r="B236" s="64" t="str">
         <f>B235</f>
         <v>T-TAX-HEV_DST31</v>
@@ -16449,7 +16458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8">
       <c r="B237" s="64" t="str">
         <f>B132</f>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -16479,7 +16488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8">
       <c r="B238" s="64" t="str">
         <f>B237</f>
         <v>T-TAX-PHEV10_GSL31</v>
@@ -16509,7 +16518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8">
       <c r="B239" s="64" t="str">
         <f>B133</f>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -16539,7 +16548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8">
       <c r="B240" s="64" t="str">
         <f>B239</f>
         <v>T-TAX-PHEV20_GSL31</v>
@@ -16569,7 +16578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:8">
       <c r="B241" s="64" t="str">
         <f>B134</f>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -16599,7 +16608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8">
       <c r="B242" s="64" t="str">
         <f>B241</f>
         <v>T-TAX-PHEV40_GSL31</v>
@@ -16629,7 +16638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:8">
       <c r="B243" s="64" t="str">
         <f>B135</f>
         <v>T-TAX-PHEV10_DST31</v>
@@ -16659,7 +16668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8">
       <c r="B244" s="64" t="str">
         <f>B243</f>
         <v>T-TAX-PHEV10_DST31</v>
@@ -16689,7 +16698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8">
       <c r="B245" s="64" t="str">
         <f>B136</f>
         <v>T-TAX-PHEV20_DST31</v>
@@ -16719,7 +16728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8">
       <c r="B246" s="64" t="str">
         <f>B245</f>
         <v>T-TAX-PHEV20_DST31</v>
@@ -16749,7 +16758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8">
       <c r="B247" s="64" t="str">
         <f>B137</f>
         <v>T-TAX-PHEV40_DST31</v>
@@ -16779,7 +16788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8">
       <c r="B248" s="64" t="str">
         <f>B247</f>
         <v>T-TAX-PHEV40_DST31</v>
@@ -16809,7 +16818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8">
       <c r="B249" s="69" t="str">
         <f>B144</f>
         <v>T-BUS-ICE_DST41</v>
@@ -16835,7 +16844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8">
       <c r="B250" s="69" t="str">
         <f>B249</f>
         <v>T-BUS-ICE_DST41</v>
@@ -16861,7 +16870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8">
       <c r="B251" s="69" t="str">
         <f>B146</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -16888,7 +16897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8">
       <c r="B252" s="69" t="str">
         <f>B251</f>
         <v>T-BUS-ICE_NGB41</v>
@@ -16916,7 +16925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8">
       <c r="B253" s="64" t="str">
         <f>B152</f>
         <v>T-HPT-ICE_DST51</v>
@@ -16941,7 +16950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8">
       <c r="B254" s="64" t="str">
         <f>B253</f>
         <v>T-HPT-ICE_DST51</v>
@@ -16966,7 +16975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8">
       <c r="B255" s="69" t="str">
         <f>B154</f>
         <v>T-LGT-ICE_DST61</v>
@@ -16991,7 +17000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8">
       <c r="B256" s="69" t="str">
         <f>B255</f>
         <v>T-LGT-ICE_DST61</v>
@@ -17016,7 +17025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8">
       <c r="B257" s="69" t="str">
         <f>B155</f>
         <v>T-LGT-HEV_DST61</v>
@@ -17041,7 +17050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8">
       <c r="B258" s="69" t="str">
         <f>B257</f>
         <v>T-LGT-HEV_DST61</v>
@@ -17066,7 +17075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8">
       <c r="B259" s="69" t="str">
         <f>B156</f>
         <v>T-LGT-PHEV_DST61</v>
@@ -17091,7 +17100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8">
       <c r="B260" s="69" t="str">
         <f>B259</f>
         <v>T-LGT-PHEV_DST61</v>
@@ -17116,7 +17125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:8">
       <c r="B261" s="69" t="str">
         <f>B157</f>
         <v>T-LGT-ICE_NGB61</v>
@@ -17141,7 +17150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8">
       <c r="B262" s="69" t="str">
         <f>B261</f>
         <v>T-LGT-ICE_NGB61</v>
@@ -17166,7 +17175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8">
       <c r="B263" s="69" t="str">
         <f>B158</f>
         <v>T-LGT-PHEV_NGB61</v>
@@ -17191,7 +17200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8">
       <c r="B264" s="69" t="str">
         <f>B263</f>
         <v>T-LGT-PHEV_NGB61</v>
@@ -17216,7 +17225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8">
       <c r="B265" s="64" t="str">
         <f>B162</f>
         <v>T-MGT-ICE_DST71</v>
@@ -17241,7 +17250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8">
       <c r="B266" s="64" t="str">
         <f>B265</f>
         <v>T-MGT-ICE_DST71</v>
@@ -17266,7 +17275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8">
       <c r="B267" s="64" t="str">
         <f>B163</f>
         <v>T-MGT-HEV_DST71</v>
@@ -17291,7 +17300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8">
       <c r="B268" s="64" t="str">
         <f>B267</f>
         <v>T-MGT-HEV_DST71</v>
@@ -17316,7 +17325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8">
       <c r="B269" s="64" t="str">
         <f>B165</f>
         <v>T-MGT-ICE_NGB71</v>
@@ -17341,7 +17350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8">
       <c r="B270" s="64" t="str">
         <f>B269</f>
         <v>T-MGT-ICE_NGB71</v>
@@ -17366,7 +17375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8">
       <c r="B271" s="64" t="str">
         <f>B166</f>
         <v>T-MGT-HEV_NGB71</v>
@@ -17391,7 +17400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:8">
       <c r="B272" s="64" t="str">
         <f>B271</f>
         <v>T-MGT-HEV_NGB71</v>
@@ -17416,7 +17425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:8">
       <c r="B273" s="69" t="str">
         <f>B170</f>
         <v>T-HGT-ICE_DST81</v>
@@ -17441,7 +17450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:8">
       <c r="B274" s="69" t="str">
         <f>B273</f>
         <v>T-HGT-ICE_DST81</v>
@@ -17466,7 +17475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:8">
       <c r="B275" s="69" t="str">
         <f>B171</f>
         <v>T-HGT-HEV_DST81</v>
@@ -17491,7 +17500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:8">
       <c r="B276" s="69" t="str">
         <f>B275</f>
         <v>T-HGT-HEV_DST81</v>
@@ -17516,7 +17525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:8">
       <c r="B277" s="69" t="str">
         <f>B173</f>
         <v>T-HGT-ICE_NGB81</v>
@@ -17541,7 +17550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:8">
       <c r="B278" s="69" t="str">
         <f>B277</f>
         <v>T-HGT-ICE_NGB81</v>
@@ -17566,7 +17575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:8">
       <c r="B279" s="69" t="str">
         <f>B174</f>
         <v>T-HGT-HEV_NGB81</v>
@@ -17591,7 +17600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:8">
       <c r="B280" s="69" t="str">
         <f>B279</f>
         <v>T-HGT-HEV_NGB81</v>
@@ -17616,7 +17625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:8">
       <c r="B281" s="64" t="str">
         <f>B178</f>
         <v>T-GTR-ICE_DST91</v>
@@ -17641,7 +17650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:8">
       <c r="B282" s="64" t="str">
         <f>B281</f>
         <v>T-GTR-ICE_DST91</v>
@@ -17666,7 +17675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:8">
       <c r="B283" s="69" t="str">
         <f>B182</f>
         <v>T-TUR_NEW</v>
@@ -17691,7 +17700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:8">
       <c r="B284" s="69" t="str">
         <f>B283</f>
         <v>T-TUR_NEW</v>
@@ -17716,7 +17725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:8">
       <c r="B285" s="69" t="str">
         <f>B182</f>
         <v>T-TUR_NEW</v>
@@ -17741,7 +17750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:8">
       <c r="B286" s="69" t="str">
         <f>B285</f>
         <v>T-TUR_NEW</v>
@@ -17766,7 +17775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:8">
       <c r="B287" s="64" t="str">
         <f>B183</f>
         <v>T-NAV_NEW</v>
@@ -17791,7 +17800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:8">
       <c r="B288" s="64" t="str">
         <f>B287</f>
         <v>T-NAV_NEW</v>
@@ -17816,7 +17825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8">
       <c r="B289" s="69" t="str">
         <f>B184</f>
         <v>T-OTH_NEW</v>
@@ -17841,7 +17850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8">
       <c r="B290" s="69" t="str">
         <f>B289</f>
         <v>T-OTH_NEW</v>
@@ -17866,7 +17875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8">
       <c r="B291" s="69" t="str">
         <f t="shared" ref="B291:B294" si="49">B290</f>
         <v>T-OTH_NEW</v>
@@ -17891,7 +17900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8">
       <c r="B292" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17916,7 +17925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8">
       <c r="B293" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17941,7 +17950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8">
       <c r="B294" s="69" t="str">
         <f t="shared" si="49"/>
         <v>T-OTH_NEW</v>
@@ -17966,7 +17975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8">
       <c r="B295" s="64" t="str">
         <f>B186</f>
         <v>T-AVI_DOM_NEW</v>
@@ -17991,7 +18000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8">
       <c r="B296" s="64" t="str">
         <f>B295</f>
         <v>T-AVI_DOM_NEW</v>
@@ -18016,7 +18025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:8">
       <c r="B297" s="64" t="str">
         <f>B187</f>
         <v>T-AVI_INT_NEW</v>
@@ -18041,7 +18050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:8">
       <c r="B298" s="68" t="str">
         <f>B297</f>
         <v>T-AVI_INT_NEW</v>
@@ -18086,19 +18095,19 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="19.3046875" customWidth="1"/>
-    <col min="2" max="2" width="15.07421875" customWidth="1"/>
-    <col min="3" max="11" width="14.07421875" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="11" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -18133,7 +18142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -18168,7 +18177,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -18207,7 +18216,7 @@
         <v>4.044339163234481E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -18246,7 +18255,7 @@
         <v>7.0982279191462321E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -18285,7 +18294,7 @@
         <v>3.9667538813275338E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -18324,7 +18333,7 @@
         <v>3.4071494011901911E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -18363,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -18402,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -18441,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -18480,7 +18489,7 @@
         <v>9.7889515257063141E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -18519,7 +18528,7 @@
         <v>2.81535528281486E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -18558,7 +18567,7 @@
         <v>5.7611198692605467E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -18597,7 +18606,7 @@
         <v>8.8694833975750467E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -18636,7 +18645,7 @@
         <v>1.0399729276888665E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -18675,7 +18684,7 @@
         <v>9.0378599668199111E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -18714,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -18753,7 +18762,7 @@
         <v>4.9027295162475133E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -18792,7 +18801,7 @@
         <v>7.5934531228075966E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -18831,7 +18840,7 @@
         <v>5.7817542527464363E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -18870,7 +18879,7 @@
         <v>8.2620071477504387E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -18909,7 +18918,7 @@
         <v>3.8875178487417154E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -18948,7 +18957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -18987,7 +18996,7 @@
         <v>1.7844614838597853E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -19026,7 +19035,7 @@
         <v>3.2627087167889597E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -19065,7 +19074,7 @@
         <v>4.7624157085434599E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -19104,7 +19113,7 @@
         <v>6.1160312652178582E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -19143,7 +19152,7 @@
         <v>7.6570070239441387E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -19182,7 +19191,7 @@
         <v>4.0385615358584315E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -19221,7 +19230,7 @@
         <v>4.4355670741269594E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -19260,7 +19269,7 @@
         <v>6.0252399778799404E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -19299,7 +19308,7 @@
         <v>5.8395305265069287E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -19338,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -19377,7 +19386,7 @@
         <v>2.9713512219681899E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -19416,7 +19425,7 @@
         <v>7.1543534422278537E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -19455,7 +19464,7 @@
         <v>8.253753394356084E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -19494,7 +19503,7 @@
         <v>6.1077775118235022E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -19533,7 +19542,7 @@
         <v>1.5434518847445876E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -19572,7 +19581,7 @@
         <v>1.0143862921663627E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -19611,7 +19620,7 @@
         <v>9.9045040732272994E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -19650,7 +19659,7 @@
         <v>9.4786103980785269E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -19689,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -19728,7 +19737,7 @@
         <v>0.1113926558102297</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -19767,17 +19776,17 @@
         <v>1.3948843236461781E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="14.5">
       <c r="A45" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -19809,7 +19818,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="15.5">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -19841,7 +19850,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="15.5">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -19873,7 +19882,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.5">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -19905,7 +19914,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.5">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -19937,7 +19946,7 @@
         <v>37720</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.5">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -19969,7 +19978,7 @@
         <v>37990</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15.5">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -20001,7 +20010,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="15.5">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -20033,7 +20042,7 @@
         <v>40395</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="15.5">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -20065,17 +20074,17 @@
         <v>73975</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="13">
       <c r="A60" s="47" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="B64" t="s">
         <v>123</v>
       </c>
@@ -20107,7 +20116,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -20152,7 +20161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -20197,7 +20206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -20242,7 +20251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -20287,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>162</v>
       </c>
@@ -20332,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -20377,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -20422,7 +20431,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -20467,7 +20476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="14.5">
       <c r="A73" s="40" t="s">
         <v>177</v>
       </c>
@@ -20512,12 +20521,12 @@
         <v>931</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -20549,7 +20558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -20594,7 +20603,7 @@
         <v>2.5412637704730561E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -20639,7 +20648,7 @@
         <v>1.270631885236528E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -20684,7 +20693,7 @@
         <v>2.5412637704730561E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -20729,7 +20738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -20774,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -20819,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -20864,7 +20873,7 @@
         <v>1.1003672126148334E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -20909,7 +20918,7 @@
         <v>7.6237913114191687E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="14.5">
       <c r="A87" s="40" t="s">
         <v>177</v>
       </c>
@@ -20954,7 +20963,7 @@
         <v>1.1829582851552077E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" ht="18.5">
       <c r="A90" s="43" t="s">
         <v>64</v>
       </c>
@@ -20963,7 +20972,7 @@
         <v>21831.587082756254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" ht="18.5">
       <c r="A91" s="43" t="s">
         <v>179</v>
       </c>
@@ -20972,12 +20981,12 @@
         <v>20290.14478354996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" s="44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
@@ -20987,7 +20996,7 @@
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>

--- a/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NewVehicles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725502B-6C1F-4753-9C7C-403B29EFC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9789AD9-7D3C-487B-9BB0-5BCECAD6E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="411">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>AFA~2027</t>
+  </si>
+  <si>
+    <t>RCAP_BND~0</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2017,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2225,6 +2228,9 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2963,11 +2969,11 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="4" width="21.7265625" style="81" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" style="81" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" style="81" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="81" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="81" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" style="81" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" style="81" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="81" customWidth="1"/>
     <col min="13" max="13" width="10" style="81" customWidth="1"/>
     <col min="14" max="14" width="11.453125" style="81" customWidth="1"/>
     <col min="15" max="15" width="13.453125" style="81" customWidth="1"/>
@@ -3395,12 +3401,12 @@
       <c r="Z15" s="80"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="82"/>
       <c r="F16" s="82"/>
       <c r="G16" s="83"/>
@@ -3484,11 +3490,11 @@
       <c r="A19" s="87" t="s">
         <v>390</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="99" t="s">
         <v>403</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="89"/>
@@ -3516,11 +3522,11 @@
       <c r="A20" s="87" t="s">
         <v>391</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="99" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="89"/>
@@ -3608,11 +3614,11 @@
       <c r="A23" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="99" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
@@ -3696,11 +3702,11 @@
       <c r="A26" s="87" t="s">
         <v>394</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="99" t="s">
         <v>401</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
@@ -3726,9 +3732,9 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="87"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="80"/>
@@ -3816,11 +3822,11 @@
       <c r="A30" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
       <c r="E30" s="92"/>
       <c r="F30" s="92"/>
       <c r="G30" s="80"/>
@@ -3848,11 +3854,11 @@
       <c r="A31" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="99" t="s">
         <v>399</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="92"/>
       <c r="F31" s="92"/>
       <c r="G31" s="80"/>
@@ -6366,10 +6372,10 @@
       <c r="H35" s="21"/>
     </row>
     <row r="38" spans="1:9" ht="21">
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="101"/>
+      <c r="C38" s="102"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="B39" s="25" t="s">
@@ -7108,10 +7114,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:X298"/>
+  <dimension ref="B3:Y298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168"/>
+    <sheetView tabSelected="1" topLeftCell="Q75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7122,13 +7128,13 @@
     <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" customWidth="1"/>
     <col min="6" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="11" width="18.08984375" customWidth="1"/>
+    <col min="9" max="11" width="18.1796875" customWidth="1"/>
     <col min="12" max="14" width="19.81640625" customWidth="1"/>
     <col min="16" max="16" width="16.26953125" customWidth="1"/>
     <col min="17" max="17" width="12.26953125" customWidth="1"/>
     <col min="18" max="18" width="15.26953125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.08984375" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" customWidth="1"/>
     <col min="21" max="21" width="14.54296875" customWidth="1"/>
     <col min="22" max="22" width="18.26953125" customWidth="1"/>
     <col min="24" max="24" width="11.81640625" customWidth="1"/>
@@ -7180,7 +7186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="29" customHeight="1" thickBot="1">
+    <row r="5" spans="2:13" ht="29.15" customHeight="1" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -8926,7 +8932,7 @@
       <c r="J96" s="7"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="2:24" ht="13">
+    <row r="97" spans="2:25" ht="13">
       <c r="B97" s="10" t="s">
         <v>1</v>
       </c>
@@ -8996,8 +9002,11 @@
       <c r="X97" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="2:24" ht="20.5">
+      <c r="Y97" s="98" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" ht="20.5">
       <c r="B98" s="35" t="s">
         <v>31</v>
       </c>
@@ -9066,7 +9075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="26.5" thickBot="1">
+    <row r="99" spans="2:25" ht="26.5" thickBot="1">
       <c r="B99" s="34" t="s">
         <v>35</v>
       </c>
@@ -9131,7 +9140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="14.5">
+    <row r="100" spans="2:25" ht="14.5">
       <c r="B100" s="26" t="s">
         <v>112</v>
       </c>
@@ -9158,7 +9167,7 @@
       <c r="W100" s="26"/>
       <c r="X100" s="26"/>
     </row>
-    <row r="101" spans="2:24">
+    <row r="101" spans="2:25">
       <c r="B101" t="str">
         <f>D7</f>
         <v>T-MOT-ICE_GSL01</v>
@@ -9236,7 +9245,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:24">
+    <row r="102" spans="2:25">
       <c r="B102" t="str">
         <f>D8</f>
         <v>T-MOT-EV_ELC01</v>
@@ -9314,7 +9323,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="14.5">
+    <row r="103" spans="2:25" ht="14.5">
       <c r="B103" s="26" t="s">
         <v>113</v>
       </c>
@@ -9341,7 +9350,7 @@
       <c r="W103" s="26"/>
       <c r="X103" s="26"/>
     </row>
-    <row r="104" spans="2:24">
+    <row r="104" spans="2:25">
       <c r="B104" t="str">
         <f t="shared" ref="B104:B122" si="2">D10</f>
         <v>T-CAR-ICE_GSL21</v>
@@ -9422,7 +9431,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:24">
+    <row r="105" spans="2:25">
       <c r="B105" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DST21</v>
@@ -9503,7 +9512,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:24">
+    <row r="106" spans="2:25">
       <c r="B106" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_DF21</v>
@@ -9581,7 +9590,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:24">
+    <row r="107" spans="2:25">
       <c r="B107" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_NGB21</v>
@@ -9659,7 +9668,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:24">
+    <row r="108" spans="2:25">
       <c r="B108" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_E8521</v>
@@ -9737,7 +9746,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:24">
+    <row r="109" spans="2:25">
       <c r="B109" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-ICE_B10021</v>
@@ -9815,7 +9824,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:24">
+    <row r="110" spans="2:25">
       <c r="B110" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_GSL21</v>
@@ -9893,7 +9902,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:24">
+    <row r="111" spans="2:25">
       <c r="B111" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-HEV_DST21</v>
@@ -9971,7 +9980,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:24">
+    <row r="112" spans="2:25">
       <c r="B112" t="str">
         <f t="shared" si="2"/>
         <v>T-CAR-PHEV10_GSL21</v>
@@ -13613,7 +13622,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:24" ht="14.5">
+    <row r="161" spans="2:25" ht="14.5">
       <c r="B161" s="26" t="s">
         <v>328</v>
       </c>
@@ -13640,7 +13649,7 @@
       <c r="W161" s="26"/>
       <c r="X161" s="26"/>
     </row>
-    <row r="162" spans="2:24">
+    <row r="162" spans="2:25">
       <c r="B162" t="str">
         <f t="shared" ref="B162:B168" si="21">D68</f>
         <v>T-MGT-ICE_DST71</v>
@@ -13725,8 +13734,11 @@
         <f t="shared" ref="X162:X168" si="26">X170</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="163" spans="2:24">
+      <c r="Y162" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:25">
       <c r="B163" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_DST71</v>
@@ -13812,8 +13824,11 @@
         <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="164" spans="2:24">
+      <c r="Y163" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:25">
       <c r="B164" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-FCV_HYD71</v>
@@ -13898,8 +13913,11 @@
         <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="165" spans="2:24">
+      <c r="Y164" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:25">
       <c r="B165" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_NGB71</v>
@@ -13985,8 +14003,11 @@
         <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="166" spans="2:24">
+      <c r="Y165" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:25">
       <c r="B166" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-HEV_NGB71</v>
@@ -14072,8 +14093,11 @@
         <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="167" spans="2:24">
+      <c r="Y166" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:25">
       <c r="B167" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-ICE_LNG71</v>
@@ -14159,8 +14183,11 @@
         <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="168" spans="2:24">
+      <c r="Y167" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:25">
       <c r="B168" t="str">
         <f t="shared" si="21"/>
         <v>T-MGT-BEV_ELC71</v>
@@ -14246,8 +14273,11 @@
         <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="169" spans="2:24" ht="14.5">
+      <c r="Y168" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:25" ht="14.5">
       <c r="B169" s="26" t="s">
         <v>118</v>
       </c>
@@ -14274,7 +14304,7 @@
       <c r="W169" s="26"/>
       <c r="X169" s="26"/>
     </row>
-    <row r="170" spans="2:24">
+    <row r="170" spans="2:25">
       <c r="B170" t="str">
         <f t="shared" ref="B170:B176" si="32">D76</f>
         <v>T-HGT-ICE_DST81</v>
@@ -14351,8 +14381,11 @@
       <c r="X170">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="171" spans="2:24">
+      <c r="Y170" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:25">
       <c r="B171" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_DST81</v>
@@ -14430,8 +14463,11 @@
       <c r="X171">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="172" spans="2:24">
+      <c r="Y171" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:25">
       <c r="B172" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-FCV_HYD81</v>
@@ -14509,8 +14545,11 @@
       <c r="X172">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="173" spans="2:24">
+      <c r="Y172" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:25">
       <c r="B173" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_NGB81</v>
@@ -14588,8 +14627,11 @@
       <c r="X173">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="174" spans="2:24">
+      <c r="Y173" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:25">
       <c r="B174" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-HEV_NGB81</v>
@@ -14667,8 +14709,11 @@
       <c r="X174">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="175" spans="2:24">
+      <c r="Y174" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:25">
       <c r="B175" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-ICE_LNG81</v>
@@ -14746,8 +14791,11 @@
       <c r="X175">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="176" spans="2:24">
+      <c r="Y175" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:25">
       <c r="B176" t="str">
         <f t="shared" si="32"/>
         <v>T-HGT-BEV_ELC81</v>
@@ -14824,6 +14872,9 @@
       </c>
       <c r="X176">
         <v>1E-3</v>
+      </c>
+      <c r="Y176" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="2:24" ht="14.5">
@@ -18098,8 +18149,8 @@
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="11" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="11" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
